--- a/cifo_project_v2/cifo_project/log/mp0-8/run_11.xlsx
+++ b/cifo_project_v2/cifo_project/log/mp0-8/run_11.xlsx
@@ -391,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4259</v>
+        <v>17.2952576463045</v>
       </c>
     </row>
     <row r="3">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4371</v>
+        <v>20.72911308657515</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>4645</v>
+        <v>21.06461462888261</v>
       </c>
     </row>
     <row r="5">
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>4645</v>
+        <v>21.25993503320312</v>
       </c>
     </row>
     <row r="6">
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>4723</v>
+        <v>21.51814649582242</v>
       </c>
     </row>
     <row r="7">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>4723</v>
+        <v>21.75930225020698</v>
       </c>
     </row>
     <row r="8">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>4792</v>
+        <v>21.75930225020698</v>
       </c>
     </row>
     <row r="9">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>4792</v>
+        <v>21.75930225020698</v>
       </c>
     </row>
     <row r="10">
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>4792</v>
+        <v>21.75930225020698</v>
       </c>
     </row>
     <row r="11">
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>4834</v>
+        <v>21.75930225020698</v>
       </c>
     </row>
     <row r="12">
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>4834</v>
+        <v>21.75930225020698</v>
       </c>
     </row>
   </sheetData>

--- a/cifo_project_v2/cifo_project/log/mp0-8/run_11.xlsx
+++ b/cifo_project_v2/cifo_project/log/mp0-8/run_11.xlsx
@@ -391,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>11417</v>
+        <v>12170</v>
       </c>
     </row>
     <row r="3">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>11417</v>
+        <v>13089</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>11086</v>
+        <v>12414</v>
       </c>
     </row>
     <row r="5">
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>11296</v>
+        <v>12414</v>
       </c>
     </row>
     <row r="6">
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>11296</v>
+        <v>12563</v>
       </c>
     </row>
     <row r="7">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>10891</v>
+        <v>12478</v>
       </c>
     </row>
     <row r="8">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>9874</v>
+        <v>12915</v>
       </c>
     </row>
     <row r="9">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>9874</v>
+        <v>12924</v>
       </c>
     </row>
     <row r="10">
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>10046</v>
+        <v>12548</v>
       </c>
     </row>
     <row r="11">
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>10046</v>
+        <v>11724</v>
       </c>
     </row>
     <row r="12">
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>9469</v>
+        <v>12559</v>
       </c>
     </row>
     <row r="13">
@@ -512,7 +512,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>9418</v>
+        <v>12344</v>
       </c>
     </row>
     <row r="14">
@@ -523,7 +523,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>10607</v>
+        <v>12344</v>
       </c>
     </row>
     <row r="15">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>10607</v>
+        <v>12517</v>
       </c>
     </row>
     <row r="16">
@@ -545,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>10030</v>
+        <v>11554</v>
       </c>
     </row>
     <row r="17">
@@ -556,7 +556,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>10030</v>
+        <v>11554</v>
       </c>
     </row>
     <row r="18">
@@ -567,7 +567,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>9845</v>
+        <v>10253</v>
       </c>
     </row>
     <row r="19">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>10330</v>
+        <v>10253</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>10330</v>
+        <v>10105</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +600,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>10183</v>
+        <v>10105</v>
       </c>
     </row>
     <row r="22">
@@ -611,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>10473</v>
+        <v>10926</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>10187</v>
+        <v>10339</v>
       </c>
     </row>
     <row r="24">
@@ -633,7 +633,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>11075</v>
+        <v>10049</v>
       </c>
     </row>
     <row r="25">
@@ -644,7 +644,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>8960</v>
+        <v>10253</v>
       </c>
     </row>
     <row r="26">
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>8960</v>
+        <v>10056</v>
       </c>
     </row>
     <row r="27">
@@ -666,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>9036</v>
+        <v>10339</v>
       </c>
     </row>
     <row r="28">
@@ -677,7 +677,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>9914</v>
+        <v>9820</v>
       </c>
     </row>
     <row r="29">
@@ -688,7 +688,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>9914</v>
+        <v>9820</v>
       </c>
     </row>
     <row r="30">
@@ -699,7 +699,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>9221</v>
+        <v>8981</v>
       </c>
     </row>
     <row r="31">
@@ -710,7 +710,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>9293</v>
+        <v>9095</v>
       </c>
     </row>
     <row r="32">
@@ -721,7 +721,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>11111</v>
+        <v>9288</v>
       </c>
     </row>
     <row r="33">
@@ -732,7 +732,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>10127</v>
+        <v>9036</v>
       </c>
     </row>
     <row r="34">
@@ -743,7 +743,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>9320</v>
+        <v>9288</v>
       </c>
     </row>
     <row r="35">
@@ -754,7 +754,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>9320</v>
+        <v>9288</v>
       </c>
     </row>
     <row r="36">
@@ -765,7 +765,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>9742</v>
+        <v>9394</v>
       </c>
     </row>
     <row r="37">
@@ -776,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>9662</v>
+        <v>9130</v>
       </c>
     </row>
     <row r="38">
@@ -787,7 +787,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>8603</v>
+        <v>9130</v>
       </c>
     </row>
     <row r="39">
@@ -798,7 +798,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>9559</v>
+        <v>9130</v>
       </c>
     </row>
     <row r="40">
@@ -809,7 +809,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>9559</v>
+        <v>8807</v>
       </c>
     </row>
     <row r="41">
@@ -820,7 +820,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>9836</v>
+        <v>8716</v>
       </c>
     </row>
     <row r="42">
@@ -831,7 +831,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>8637</v>
+        <v>7915</v>
       </c>
     </row>
     <row r="43">
@@ -842,7 +842,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>9972</v>
+        <v>7915</v>
       </c>
     </row>
     <row r="44">
@@ -853,7 +853,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="n">
-        <v>11126</v>
+        <v>7915</v>
       </c>
     </row>
     <row r="45">
@@ -864,7 +864,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="n">
-        <v>9805</v>
+        <v>7915</v>
       </c>
     </row>
     <row r="46">
@@ -875,7 +875,7 @@
         <v>44</v>
       </c>
       <c r="C46" t="n">
-        <v>10591</v>
+        <v>7915</v>
       </c>
     </row>
     <row r="47">
@@ -886,7 +886,7 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>10770</v>
+        <v>8626</v>
       </c>
     </row>
     <row r="48">
@@ -897,7 +897,7 @@
         <v>46</v>
       </c>
       <c r="C48" t="n">
-        <v>10803</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="49">
@@ -908,7 +908,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>10378</v>
+        <v>8626</v>
       </c>
     </row>
     <row r="50">
@@ -919,7 +919,7 @@
         <v>48</v>
       </c>
       <c r="C50" t="n">
-        <v>10298</v>
+        <v>8626</v>
       </c>
     </row>
     <row r="51">
@@ -930,7 +930,7 @@
         <v>49</v>
       </c>
       <c r="C51" t="n">
-        <v>8865</v>
+        <v>9063</v>
       </c>
     </row>
     <row r="52">
@@ -941,7 +941,7 @@
         <v>50</v>
       </c>
       <c r="C52" t="n">
-        <v>9533</v>
+        <v>8496</v>
       </c>
     </row>
     <row r="53">
@@ -952,7 +952,7 @@
         <v>51</v>
       </c>
       <c r="C53" t="n">
-        <v>9703</v>
+        <v>8496</v>
       </c>
     </row>
     <row r="54">
@@ -963,7 +963,7 @@
         <v>52</v>
       </c>
       <c r="C54" t="n">
-        <v>10164</v>
+        <v>8496</v>
       </c>
     </row>
     <row r="55">
@@ -974,7 +974,7 @@
         <v>53</v>
       </c>
       <c r="C55" t="n">
-        <v>10746</v>
+        <v>8626</v>
       </c>
     </row>
     <row r="56">
@@ -985,7 +985,7 @@
         <v>54</v>
       </c>
       <c r="C56" t="n">
-        <v>10385</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="57">
@@ -996,7 +996,7 @@
         <v>55</v>
       </c>
       <c r="C57" t="n">
-        <v>10539</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="58">
@@ -1007,7 +1007,7 @@
         <v>56</v>
       </c>
       <c r="C58" t="n">
-        <v>10539</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="59">
@@ -1018,7 +1018,7 @@
         <v>57</v>
       </c>
       <c r="C59" t="n">
-        <v>9830</v>
+        <v>8176</v>
       </c>
     </row>
     <row r="60">
@@ -1029,7 +1029,7 @@
         <v>58</v>
       </c>
       <c r="C60" t="n">
-        <v>10944</v>
+        <v>8217</v>
       </c>
     </row>
     <row r="61">
@@ -1040,7 +1040,7 @@
         <v>59</v>
       </c>
       <c r="C61" t="n">
-        <v>10893</v>
+        <v>9219</v>
       </c>
     </row>
     <row r="62">
@@ -1051,7 +1051,7 @@
         <v>60</v>
       </c>
       <c r="C62" t="n">
-        <v>10565</v>
+        <v>9308</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         <v>61</v>
       </c>
       <c r="C63" t="n">
-        <v>10488</v>
+        <v>9508</v>
       </c>
     </row>
     <row r="64">
@@ -1073,7 +1073,7 @@
         <v>62</v>
       </c>
       <c r="C64" t="n">
-        <v>9514</v>
+        <v>9508</v>
       </c>
     </row>
     <row r="65">
@@ -1084,7 +1084,7 @@
         <v>63</v>
       </c>
       <c r="C65" t="n">
-        <v>9514</v>
+        <v>9479</v>
       </c>
     </row>
     <row r="66">
@@ -1095,7 +1095,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="n">
-        <v>10314</v>
+        <v>9707</v>
       </c>
     </row>
     <row r="67">
@@ -1106,7 +1106,7 @@
         <v>65</v>
       </c>
       <c r="C67" t="n">
-        <v>10461</v>
+        <v>9707</v>
       </c>
     </row>
     <row r="68">
@@ -1117,7 +1117,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="n">
-        <v>10001</v>
+        <v>9707</v>
       </c>
     </row>
     <row r="69">
@@ -1128,7 +1128,7 @@
         <v>67</v>
       </c>
       <c r="C69" t="n">
-        <v>10122</v>
+        <v>9134</v>
       </c>
     </row>
     <row r="70">
@@ -1139,7 +1139,7 @@
         <v>68</v>
       </c>
       <c r="C70" t="n">
-        <v>10151</v>
+        <v>9134</v>
       </c>
     </row>
     <row r="71">
@@ -1150,7 +1150,7 @@
         <v>69</v>
       </c>
       <c r="C71" t="n">
-        <v>8825</v>
+        <v>9134</v>
       </c>
     </row>
     <row r="72">
@@ -1161,7 +1161,7 @@
         <v>70</v>
       </c>
       <c r="C72" t="n">
-        <v>10619</v>
+        <v>9045</v>
       </c>
     </row>
     <row r="73">
@@ -1172,7 +1172,7 @@
         <v>71</v>
       </c>
       <c r="C73" t="n">
-        <v>9785</v>
+        <v>9122</v>
       </c>
     </row>
     <row r="74">
@@ -1183,7 +1183,7 @@
         <v>72</v>
       </c>
       <c r="C74" t="n">
-        <v>9960</v>
+        <v>9122</v>
       </c>
     </row>
     <row r="75">
@@ -1194,7 +1194,7 @@
         <v>73</v>
       </c>
       <c r="C75" t="n">
-        <v>9960</v>
+        <v>9122</v>
       </c>
     </row>
     <row r="76">
@@ -1205,7 +1205,7 @@
         <v>74</v>
       </c>
       <c r="C76" t="n">
-        <v>10286</v>
+        <v>9122</v>
       </c>
     </row>
     <row r="77">
@@ -1216,7 +1216,7 @@
         <v>75</v>
       </c>
       <c r="C77" t="n">
-        <v>10225</v>
+        <v>9122</v>
       </c>
     </row>
     <row r="78">
@@ -1227,7 +1227,7 @@
         <v>76</v>
       </c>
       <c r="C78" t="n">
-        <v>9912</v>
+        <v>9122</v>
       </c>
     </row>
     <row r="79">
@@ -1238,7 +1238,7 @@
         <v>77</v>
       </c>
       <c r="C79" t="n">
-        <v>10545</v>
+        <v>9692</v>
       </c>
     </row>
     <row r="80">
@@ -1249,7 +1249,7 @@
         <v>78</v>
       </c>
       <c r="C80" t="n">
-        <v>10030</v>
+        <v>9692</v>
       </c>
     </row>
     <row r="81">
@@ -1260,7 +1260,7 @@
         <v>79</v>
       </c>
       <c r="C81" t="n">
-        <v>10704</v>
+        <v>9692</v>
       </c>
     </row>
     <row r="82">
@@ -1271,7 +1271,7 @@
         <v>80</v>
       </c>
       <c r="C82" t="n">
-        <v>10726</v>
+        <v>9550</v>
       </c>
     </row>
     <row r="83">
@@ -1282,7 +1282,7 @@
         <v>81</v>
       </c>
       <c r="C83" t="n">
-        <v>9762</v>
+        <v>9692</v>
       </c>
     </row>
     <row r="84">
@@ -1293,7 +1293,7 @@
         <v>82</v>
       </c>
       <c r="C84" t="n">
-        <v>9444</v>
+        <v>9692</v>
       </c>
     </row>
     <row r="85">
@@ -1304,7 +1304,7 @@
         <v>83</v>
       </c>
       <c r="C85" t="n">
-        <v>10575</v>
+        <v>9122</v>
       </c>
     </row>
     <row r="86">
@@ -1315,7 +1315,7 @@
         <v>84</v>
       </c>
       <c r="C86" t="n">
-        <v>10327</v>
+        <v>9922</v>
       </c>
     </row>
     <row r="87">
@@ -1326,7 +1326,7 @@
         <v>85</v>
       </c>
       <c r="C87" t="n">
-        <v>9551</v>
+        <v>10105</v>
       </c>
     </row>
     <row r="88">
@@ -1337,7 +1337,7 @@
         <v>86</v>
       </c>
       <c r="C88" t="n">
-        <v>10588</v>
+        <v>9417</v>
       </c>
     </row>
     <row r="89">
@@ -1348,7 +1348,7 @@
         <v>87</v>
       </c>
       <c r="C89" t="n">
-        <v>10160</v>
+        <v>9846</v>
       </c>
     </row>
     <row r="90">
@@ -1359,7 +1359,7 @@
         <v>88</v>
       </c>
       <c r="C90" t="n">
-        <v>9424</v>
+        <v>8914</v>
       </c>
     </row>
     <row r="91">
@@ -1370,7 +1370,7 @@
         <v>89</v>
       </c>
       <c r="C91" t="n">
-        <v>9901</v>
+        <v>10222</v>
       </c>
     </row>
     <row r="92">
@@ -1381,7 +1381,7 @@
         <v>90</v>
       </c>
       <c r="C92" t="n">
-        <v>9657</v>
+        <v>9551</v>
       </c>
     </row>
     <row r="93">
@@ -1392,7 +1392,7 @@
         <v>91</v>
       </c>
       <c r="C93" t="n">
-        <v>10405</v>
+        <v>9841</v>
       </c>
     </row>
     <row r="94">
@@ -1403,7 +1403,7 @@
         <v>92</v>
       </c>
       <c r="C94" t="n">
-        <v>10416</v>
+        <v>10214</v>
       </c>
     </row>
     <row r="95">
@@ -1414,7 +1414,7 @@
         <v>93</v>
       </c>
       <c r="C95" t="n">
-        <v>9124</v>
+        <v>9728</v>
       </c>
     </row>
     <row r="96">
@@ -1425,7 +1425,7 @@
         <v>94</v>
       </c>
       <c r="C96" t="n">
-        <v>9074</v>
+        <v>9682</v>
       </c>
     </row>
     <row r="97">
@@ -1436,7 +1436,7 @@
         <v>95</v>
       </c>
       <c r="C97" t="n">
-        <v>9259</v>
+        <v>9682</v>
       </c>
     </row>
     <row r="98">
@@ -1447,7 +1447,7 @@
         <v>96</v>
       </c>
       <c r="C98" t="n">
-        <v>9074</v>
+        <v>9682</v>
       </c>
     </row>
     <row r="99">
@@ -1458,7 +1458,7 @@
         <v>97</v>
       </c>
       <c r="C99" t="n">
-        <v>9131</v>
+        <v>9441</v>
       </c>
     </row>
     <row r="100">
@@ -1469,7 +1469,7 @@
         <v>98</v>
       </c>
       <c r="C100" t="n">
-        <v>9131</v>
+        <v>9975</v>
       </c>
     </row>
     <row r="101">
@@ -1480,7 +1480,7 @@
         <v>99</v>
       </c>
       <c r="C101" t="n">
-        <v>9209</v>
+        <v>10346</v>
       </c>
     </row>
     <row r="102">
@@ -1491,7 +1491,7 @@
         <v>100</v>
       </c>
       <c r="C102" t="n">
-        <v>9810</v>
+        <v>10472</v>
       </c>
     </row>
     <row r="103">
@@ -1502,7 +1502,7 @@
         <v>101</v>
       </c>
       <c r="C103" t="n">
-        <v>10614</v>
+        <v>10314</v>
       </c>
     </row>
     <row r="104">
@@ -1513,7 +1513,7 @@
         <v>102</v>
       </c>
       <c r="C104" t="n">
-        <v>9771</v>
+        <v>10314</v>
       </c>
     </row>
     <row r="105">
@@ -1524,7 +1524,7 @@
         <v>103</v>
       </c>
       <c r="C105" t="n">
-        <v>10026</v>
+        <v>9859</v>
       </c>
     </row>
     <row r="106">
@@ -1535,7 +1535,7 @@
         <v>104</v>
       </c>
       <c r="C106" t="n">
-        <v>9362</v>
+        <v>10536</v>
       </c>
     </row>
     <row r="107">
@@ -1546,7 +1546,7 @@
         <v>105</v>
       </c>
       <c r="C107" t="n">
-        <v>9362</v>
+        <v>10705</v>
       </c>
     </row>
     <row r="108">
@@ -1557,7 +1557,7 @@
         <v>106</v>
       </c>
       <c r="C108" t="n">
-        <v>10931</v>
+        <v>10655</v>
       </c>
     </row>
     <row r="109">
@@ -1568,7 +1568,7 @@
         <v>107</v>
       </c>
       <c r="C109" t="n">
-        <v>10873</v>
+        <v>10105</v>
       </c>
     </row>
     <row r="110">
@@ -1579,7 +1579,7 @@
         <v>108</v>
       </c>
       <c r="C110" t="n">
-        <v>10079</v>
+        <v>10105</v>
       </c>
     </row>
     <row r="111">
@@ -1590,7 +1590,7 @@
         <v>109</v>
       </c>
       <c r="C111" t="n">
-        <v>10886</v>
+        <v>10105</v>
       </c>
     </row>
     <row r="112">
@@ -1601,7 +1601,7 @@
         <v>110</v>
       </c>
       <c r="C112" t="n">
-        <v>9876</v>
+        <v>10105</v>
       </c>
     </row>
     <row r="113">
@@ -1612,7 +1612,7 @@
         <v>111</v>
       </c>
       <c r="C113" t="n">
-        <v>9876</v>
+        <v>10101</v>
       </c>
     </row>
     <row r="114">
@@ -1623,7 +1623,7 @@
         <v>112</v>
       </c>
       <c r="C114" t="n">
-        <v>9789</v>
+        <v>10093</v>
       </c>
     </row>
     <row r="115">
@@ -1634,7 +1634,7 @@
         <v>113</v>
       </c>
       <c r="C115" t="n">
-        <v>9569</v>
+        <v>10093</v>
       </c>
     </row>
     <row r="116">
@@ -1645,7 +1645,7 @@
         <v>114</v>
       </c>
       <c r="C116" t="n">
-        <v>10765</v>
+        <v>9638</v>
       </c>
     </row>
     <row r="117">
@@ -1656,7 +1656,7 @@
         <v>115</v>
       </c>
       <c r="C117" t="n">
-        <v>10765</v>
+        <v>10093</v>
       </c>
     </row>
     <row r="118">
@@ -1667,7 +1667,7 @@
         <v>116</v>
       </c>
       <c r="C118" t="n">
-        <v>10765</v>
+        <v>10101</v>
       </c>
     </row>
     <row r="119">
@@ -1678,7 +1678,7 @@
         <v>117</v>
       </c>
       <c r="C119" t="n">
-        <v>9753</v>
+        <v>10101</v>
       </c>
     </row>
     <row r="120">
@@ -1689,7 +1689,7 @@
         <v>118</v>
       </c>
       <c r="C120" t="n">
-        <v>9644</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="121">
@@ -1700,7 +1700,7 @@
         <v>119</v>
       </c>
       <c r="C121" t="n">
-        <v>9526</v>
+        <v>10688</v>
       </c>
     </row>
     <row r="122">
@@ -1711,7 +1711,7 @@
         <v>120</v>
       </c>
       <c r="C122" t="n">
-        <v>9526</v>
+        <v>9538</v>
       </c>
     </row>
     <row r="123">
@@ -1722,7 +1722,7 @@
         <v>121</v>
       </c>
       <c r="C123" t="n">
-        <v>9644</v>
+        <v>9538</v>
       </c>
     </row>
     <row r="124">
@@ -1733,7 +1733,7 @@
         <v>122</v>
       </c>
       <c r="C124" t="n">
-        <v>9559</v>
+        <v>9538</v>
       </c>
     </row>
     <row r="125">
@@ -1744,7 +1744,7 @@
         <v>123</v>
       </c>
       <c r="C125" t="n">
-        <v>9559</v>
+        <v>9538</v>
       </c>
     </row>
     <row r="126">
@@ -1755,7 +1755,7 @@
         <v>124</v>
       </c>
       <c r="C126" t="n">
-        <v>9699</v>
+        <v>9305</v>
       </c>
     </row>
     <row r="127">
@@ -1766,7 +1766,7 @@
         <v>125</v>
       </c>
       <c r="C127" t="n">
-        <v>9772</v>
+        <v>9305</v>
       </c>
     </row>
     <row r="128">
@@ -1777,7 +1777,7 @@
         <v>126</v>
       </c>
       <c r="C128" t="n">
-        <v>10067</v>
+        <v>9305</v>
       </c>
     </row>
     <row r="129">
@@ -1788,7 +1788,7 @@
         <v>127</v>
       </c>
       <c r="C129" t="n">
-        <v>10165</v>
+        <v>9196</v>
       </c>
     </row>
     <row r="130">
@@ -1799,7 +1799,7 @@
         <v>128</v>
       </c>
       <c r="C130" t="n">
-        <v>10252</v>
+        <v>9265</v>
       </c>
     </row>
     <row r="131">
@@ -1810,7 +1810,7 @@
         <v>129</v>
       </c>
       <c r="C131" t="n">
-        <v>10127</v>
+        <v>9265</v>
       </c>
     </row>
     <row r="132">
@@ -1821,7 +1821,7 @@
         <v>130</v>
       </c>
       <c r="C132" t="n">
-        <v>11433</v>
+        <v>9265</v>
       </c>
     </row>
     <row r="133">
@@ -1832,7 +1832,7 @@
         <v>131</v>
       </c>
       <c r="C133" t="n">
-        <v>11573</v>
+        <v>9007</v>
       </c>
     </row>
     <row r="134">
@@ -1843,7 +1843,7 @@
         <v>132</v>
       </c>
       <c r="C134" t="n">
-        <v>10448</v>
+        <v>9007</v>
       </c>
     </row>
     <row r="135">
@@ -1854,7 +1854,7 @@
         <v>133</v>
       </c>
       <c r="C135" t="n">
-        <v>9222</v>
+        <v>9007</v>
       </c>
     </row>
     <row r="136">
@@ -1865,7 +1865,7 @@
         <v>134</v>
       </c>
       <c r="C136" t="n">
-        <v>9222</v>
+        <v>9007</v>
       </c>
     </row>
     <row r="137">
@@ -1876,7 +1876,7 @@
         <v>135</v>
       </c>
       <c r="C137" t="n">
-        <v>7861</v>
+        <v>9007</v>
       </c>
     </row>
     <row r="138">
@@ -1887,7 +1887,7 @@
         <v>136</v>
       </c>
       <c r="C138" t="n">
-        <v>9282</v>
+        <v>9007</v>
       </c>
     </row>
     <row r="139">
@@ -1898,7 +1898,7 @@
         <v>137</v>
       </c>
       <c r="C139" t="n">
-        <v>9071</v>
+        <v>8740</v>
       </c>
     </row>
     <row r="140">
@@ -1909,7 +1909,7 @@
         <v>138</v>
       </c>
       <c r="C140" t="n">
-        <v>8909</v>
+        <v>8740</v>
       </c>
     </row>
     <row r="141">
@@ -1920,7 +1920,7 @@
         <v>139</v>
       </c>
       <c r="C141" t="n">
-        <v>8851</v>
+        <v>8740</v>
       </c>
     </row>
     <row r="142">
@@ -1931,7 +1931,7 @@
         <v>140</v>
       </c>
       <c r="C142" t="n">
-        <v>9152</v>
+        <v>8740</v>
       </c>
     </row>
     <row r="143">
@@ -1942,7 +1942,7 @@
         <v>141</v>
       </c>
       <c r="C143" t="n">
-        <v>9152</v>
+        <v>8740</v>
       </c>
     </row>
     <row r="144">
@@ -1953,7 +1953,7 @@
         <v>142</v>
       </c>
       <c r="C144" t="n">
-        <v>9152</v>
+        <v>8740</v>
       </c>
     </row>
     <row r="145">
@@ -1964,7 +1964,7 @@
         <v>143</v>
       </c>
       <c r="C145" t="n">
-        <v>8988</v>
+        <v>9007</v>
       </c>
     </row>
     <row r="146">
@@ -1975,7 +1975,7 @@
         <v>144</v>
       </c>
       <c r="C146" t="n">
-        <v>8988</v>
+        <v>8967</v>
       </c>
     </row>
     <row r="147">
@@ -1986,7 +1986,7 @@
         <v>145</v>
       </c>
       <c r="C147" t="n">
-        <v>9098</v>
+        <v>8967</v>
       </c>
     </row>
     <row r="148">
@@ -1997,7 +1997,7 @@
         <v>146</v>
       </c>
       <c r="C148" t="n">
-        <v>9098</v>
+        <v>8967</v>
       </c>
     </row>
     <row r="149">
@@ -2008,7 +2008,7 @@
         <v>147</v>
       </c>
       <c r="C149" t="n">
-        <v>8811</v>
+        <v>8967</v>
       </c>
     </row>
     <row r="150">
@@ -2019,7 +2019,7 @@
         <v>148</v>
       </c>
       <c r="C150" t="n">
-        <v>9152</v>
+        <v>9007</v>
       </c>
     </row>
     <row r="151">
@@ -2030,7 +2030,7 @@
         <v>149</v>
       </c>
       <c r="C151" t="n">
-        <v>9222</v>
+        <v>9007</v>
       </c>
     </row>
     <row r="152">
@@ -2041,7 +2041,7 @@
         <v>150</v>
       </c>
       <c r="C152" t="n">
-        <v>8930</v>
+        <v>8964</v>
       </c>
     </row>
     <row r="153">
@@ -2052,7 +2052,7 @@
         <v>151</v>
       </c>
       <c r="C153" t="n">
-        <v>9495</v>
+        <v>8964</v>
       </c>
     </row>
     <row r="154">
@@ -2063,7 +2063,7 @@
         <v>152</v>
       </c>
       <c r="C154" t="n">
-        <v>9845</v>
+        <v>8964</v>
       </c>
     </row>
     <row r="155">
@@ -2074,7 +2074,7 @@
         <v>153</v>
       </c>
       <c r="C155" t="n">
-        <v>9654</v>
+        <v>8854</v>
       </c>
     </row>
     <row r="156">
@@ -2085,7 +2085,7 @@
         <v>154</v>
       </c>
       <c r="C156" t="n">
-        <v>9399</v>
+        <v>9048</v>
       </c>
     </row>
     <row r="157">
@@ -2096,7 +2096,7 @@
         <v>155</v>
       </c>
       <c r="C157" t="n">
-        <v>8550</v>
+        <v>9309</v>
       </c>
     </row>
     <row r="158">
@@ -2107,7 +2107,7 @@
         <v>156</v>
       </c>
       <c r="C158" t="n">
-        <v>9325</v>
+        <v>8462</v>
       </c>
     </row>
     <row r="159">
@@ -2118,7 +2118,7 @@
         <v>157</v>
       </c>
       <c r="C159" t="n">
-        <v>9663</v>
+        <v>8462</v>
       </c>
     </row>
     <row r="160">
@@ -2129,7 +2129,7 @@
         <v>158</v>
       </c>
       <c r="C160" t="n">
-        <v>9663</v>
+        <v>8462</v>
       </c>
     </row>
     <row r="161">
@@ -2140,7 +2140,7 @@
         <v>159</v>
       </c>
       <c r="C161" t="n">
-        <v>10325</v>
+        <v>8487</v>
       </c>
     </row>
     <row r="162">
@@ -2151,7 +2151,7 @@
         <v>160</v>
       </c>
       <c r="C162" t="n">
-        <v>9888</v>
+        <v>8775</v>
       </c>
     </row>
     <row r="163">
@@ -2162,7 +2162,7 @@
         <v>161</v>
       </c>
       <c r="C163" t="n">
-        <v>9407</v>
+        <v>8773</v>
       </c>
     </row>
     <row r="164">
@@ -2173,7 +2173,7 @@
         <v>162</v>
       </c>
       <c r="C164" t="n">
-        <v>9888</v>
+        <v>8095</v>
       </c>
     </row>
     <row r="165">
@@ -2184,7 +2184,7 @@
         <v>163</v>
       </c>
       <c r="C165" t="n">
-        <v>9427</v>
+        <v>9807</v>
       </c>
     </row>
     <row r="166">
@@ -2195,7 +2195,7 @@
         <v>164</v>
       </c>
       <c r="C166" t="n">
-        <v>9427</v>
+        <v>9807</v>
       </c>
     </row>
     <row r="167">
@@ -2206,7 +2206,7 @@
         <v>165</v>
       </c>
       <c r="C167" t="n">
-        <v>9794</v>
+        <v>10122</v>
       </c>
     </row>
     <row r="168">
@@ -2217,7 +2217,7 @@
         <v>166</v>
       </c>
       <c r="C168" t="n">
-        <v>9851</v>
+        <v>10122</v>
       </c>
     </row>
     <row r="169">
@@ -2228,7 +2228,7 @@
         <v>167</v>
       </c>
       <c r="C169" t="n">
-        <v>9387</v>
+        <v>9485</v>
       </c>
     </row>
     <row r="170">
@@ -2239,7 +2239,7 @@
         <v>168</v>
       </c>
       <c r="C170" t="n">
-        <v>9834</v>
+        <v>9209</v>
       </c>
     </row>
     <row r="171">
@@ -2250,7 +2250,7 @@
         <v>169</v>
       </c>
       <c r="C171" t="n">
-        <v>9112</v>
+        <v>9671</v>
       </c>
     </row>
     <row r="172">
@@ -2261,7 +2261,7 @@
         <v>170</v>
       </c>
       <c r="C172" t="n">
-        <v>8455</v>
+        <v>9671</v>
       </c>
     </row>
     <row r="173">
@@ -2272,7 +2272,7 @@
         <v>171</v>
       </c>
       <c r="C173" t="n">
-        <v>9322</v>
+        <v>9671</v>
       </c>
     </row>
     <row r="174">
@@ -2283,7 +2283,7 @@
         <v>172</v>
       </c>
       <c r="C174" t="n">
-        <v>10311</v>
+        <v>9629</v>
       </c>
     </row>
     <row r="175">
@@ -2294,7 +2294,7 @@
         <v>173</v>
       </c>
       <c r="C175" t="n">
-        <v>10986</v>
+        <v>9671</v>
       </c>
     </row>
     <row r="176">
@@ -2305,7 +2305,7 @@
         <v>174</v>
       </c>
       <c r="C176" t="n">
-        <v>10193</v>
+        <v>9671</v>
       </c>
     </row>
     <row r="177">
@@ -2316,7 +2316,7 @@
         <v>175</v>
       </c>
       <c r="C177" t="n">
-        <v>10590</v>
+        <v>9445</v>
       </c>
     </row>
     <row r="178">
@@ -2327,7 +2327,7 @@
         <v>176</v>
       </c>
       <c r="C178" t="n">
-        <v>10088</v>
+        <v>9671</v>
       </c>
     </row>
     <row r="179">
@@ -2338,7 +2338,7 @@
         <v>177</v>
       </c>
       <c r="C179" t="n">
-        <v>10156</v>
+        <v>9645</v>
       </c>
     </row>
     <row r="180">
@@ -2349,7 +2349,7 @@
         <v>178</v>
       </c>
       <c r="C180" t="n">
-        <v>10336</v>
+        <v>9671</v>
       </c>
     </row>
     <row r="181">
@@ -2360,7 +2360,7 @@
         <v>179</v>
       </c>
       <c r="C181" t="n">
-        <v>9601</v>
+        <v>9671</v>
       </c>
     </row>
     <row r="182">
@@ -2371,7 +2371,7 @@
         <v>180</v>
       </c>
       <c r="C182" t="n">
-        <v>11284</v>
+        <v>9488</v>
       </c>
     </row>
     <row r="183">
@@ -2382,7 +2382,7 @@
         <v>181</v>
       </c>
       <c r="C183" t="n">
-        <v>11212</v>
+        <v>9238</v>
       </c>
     </row>
     <row r="184">
@@ -2393,7 +2393,7 @@
         <v>182</v>
       </c>
       <c r="C184" t="n">
-        <v>11260</v>
+        <v>9238</v>
       </c>
     </row>
     <row r="185">
@@ -2404,7 +2404,7 @@
         <v>183</v>
       </c>
       <c r="C185" t="n">
-        <v>11387</v>
+        <v>9263</v>
       </c>
     </row>
     <row r="186">
@@ -2415,7 +2415,7 @@
         <v>184</v>
       </c>
       <c r="C186" t="n">
-        <v>10186</v>
+        <v>8991</v>
       </c>
     </row>
     <row r="187">
@@ -2426,7 +2426,7 @@
         <v>185</v>
       </c>
       <c r="C187" t="n">
-        <v>9581</v>
+        <v>8991</v>
       </c>
     </row>
     <row r="188">
@@ -2437,7 +2437,7 @@
         <v>186</v>
       </c>
       <c r="C188" t="n">
-        <v>11377</v>
+        <v>9465</v>
       </c>
     </row>
     <row r="189">
@@ -2448,7 +2448,7 @@
         <v>187</v>
       </c>
       <c r="C189" t="n">
-        <v>11885</v>
+        <v>9465</v>
       </c>
     </row>
     <row r="190">
@@ -2459,7 +2459,7 @@
         <v>188</v>
       </c>
       <c r="C190" t="n">
-        <v>11392</v>
+        <v>9465</v>
       </c>
     </row>
     <row r="191">
@@ -2470,7 +2470,7 @@
         <v>189</v>
       </c>
       <c r="C191" t="n">
-        <v>11218</v>
+        <v>9465</v>
       </c>
     </row>
     <row r="192">
@@ -2481,7 +2481,7 @@
         <v>190</v>
       </c>
       <c r="C192" t="n">
-        <v>11218</v>
+        <v>9419</v>
       </c>
     </row>
     <row r="193">
@@ -2492,7 +2492,7 @@
         <v>191</v>
       </c>
       <c r="C193" t="n">
-        <v>12051</v>
+        <v>9419</v>
       </c>
     </row>
     <row r="194">
@@ -2503,7 +2503,7 @@
         <v>192</v>
       </c>
       <c r="C194" t="n">
-        <v>11001</v>
+        <v>9380</v>
       </c>
     </row>
     <row r="195">
@@ -2514,7 +2514,7 @@
         <v>193</v>
       </c>
       <c r="C195" t="n">
-        <v>10594</v>
+        <v>9380</v>
       </c>
     </row>
     <row r="196">
@@ -2525,7 +2525,7 @@
         <v>194</v>
       </c>
       <c r="C196" t="n">
-        <v>11214</v>
+        <v>9380</v>
       </c>
     </row>
     <row r="197">
@@ -2536,7 +2536,7 @@
         <v>195</v>
       </c>
       <c r="C197" t="n">
-        <v>10456</v>
+        <v>8989</v>
       </c>
     </row>
     <row r="198">
@@ -2547,7 +2547,7 @@
         <v>196</v>
       </c>
       <c r="C198" t="n">
-        <v>10019</v>
+        <v>9380</v>
       </c>
     </row>
     <row r="199">
@@ -2558,7 +2558,7 @@
         <v>197</v>
       </c>
       <c r="C199" t="n">
-        <v>10400</v>
+        <v>9491</v>
       </c>
     </row>
     <row r="200">
@@ -2569,7 +2569,7 @@
         <v>198</v>
       </c>
       <c r="C200" t="n">
-        <v>10400</v>
+        <v>9641</v>
       </c>
     </row>
     <row r="201">
@@ -2580,7 +2580,7 @@
         <v>199</v>
       </c>
       <c r="C201" t="n">
-        <v>10366</v>
+        <v>9641</v>
       </c>
     </row>
     <row r="202">
@@ -2591,7 +2591,7 @@
         <v>200</v>
       </c>
       <c r="C202" t="n">
-        <v>10354</v>
+        <v>9641</v>
       </c>
     </row>
     <row r="203">
@@ -2602,7 +2602,7 @@
         <v>201</v>
       </c>
       <c r="C203" t="n">
-        <v>10366</v>
+        <v>9641</v>
       </c>
     </row>
     <row r="204">
@@ -2613,7 +2613,7 @@
         <v>202</v>
       </c>
       <c r="C204" t="n">
-        <v>10246</v>
+        <v>9641</v>
       </c>
     </row>
     <row r="205">
@@ -2624,7 +2624,7 @@
         <v>203</v>
       </c>
       <c r="C205" t="n">
-        <v>9899</v>
+        <v>9641</v>
       </c>
     </row>
     <row r="206">
@@ -2635,7 +2635,7 @@
         <v>204</v>
       </c>
       <c r="C206" t="n">
-        <v>9160</v>
+        <v>9820</v>
       </c>
     </row>
     <row r="207">
@@ -2646,7 +2646,7 @@
         <v>205</v>
       </c>
       <c r="C207" t="n">
-        <v>9160</v>
+        <v>9628</v>
       </c>
     </row>
     <row r="208">
@@ -2657,7 +2657,7 @@
         <v>206</v>
       </c>
       <c r="C208" t="n">
-        <v>9162</v>
+        <v>9064</v>
       </c>
     </row>
     <row r="209">
@@ -2668,7 +2668,7 @@
         <v>207</v>
       </c>
       <c r="C209" t="n">
-        <v>9184</v>
+        <v>8640</v>
       </c>
     </row>
     <row r="210">
@@ -2679,7 +2679,7 @@
         <v>208</v>
       </c>
       <c r="C210" t="n">
-        <v>9531</v>
+        <v>8640</v>
       </c>
     </row>
     <row r="211">
@@ -2690,7 +2690,7 @@
         <v>209</v>
       </c>
       <c r="C211" t="n">
-        <v>9531</v>
+        <v>9545</v>
       </c>
     </row>
     <row r="212">
@@ -2701,7 +2701,7 @@
         <v>210</v>
       </c>
       <c r="C212" t="n">
-        <v>9280</v>
+        <v>9545</v>
       </c>
     </row>
     <row r="213">
@@ -2712,7 +2712,7 @@
         <v>211</v>
       </c>
       <c r="C213" t="n">
-        <v>9531</v>
+        <v>9595</v>
       </c>
     </row>
     <row r="214">
@@ -2723,7 +2723,7 @@
         <v>212</v>
       </c>
       <c r="C214" t="n">
-        <v>10429</v>
+        <v>9595</v>
       </c>
     </row>
     <row r="215">
@@ -2734,7 +2734,7 @@
         <v>213</v>
       </c>
       <c r="C215" t="n">
-        <v>8942</v>
+        <v>9595</v>
       </c>
     </row>
     <row r="216">
@@ -2745,7 +2745,7 @@
         <v>214</v>
       </c>
       <c r="C216" t="n">
-        <v>10522</v>
+        <v>9595</v>
       </c>
     </row>
     <row r="217">
@@ -2756,7 +2756,7 @@
         <v>215</v>
       </c>
       <c r="C217" t="n">
-        <v>9665</v>
+        <v>9867</v>
       </c>
     </row>
     <row r="218">
@@ -2767,7 +2767,7 @@
         <v>216</v>
       </c>
       <c r="C218" t="n">
-        <v>9534</v>
+        <v>9867</v>
       </c>
     </row>
     <row r="219">
@@ -2778,7 +2778,7 @@
         <v>217</v>
       </c>
       <c r="C219" t="n">
-        <v>11472</v>
+        <v>9246</v>
       </c>
     </row>
     <row r="220">
@@ -2789,7 +2789,7 @@
         <v>218</v>
       </c>
       <c r="C220" t="n">
-        <v>9670</v>
+        <v>9511</v>
       </c>
     </row>
     <row r="221">
@@ -2800,7 +2800,7 @@
         <v>219</v>
       </c>
       <c r="C221" t="n">
-        <v>11336</v>
+        <v>9328</v>
       </c>
     </row>
     <row r="222">
@@ -2811,7 +2811,7 @@
         <v>220</v>
       </c>
       <c r="C222" t="n">
-        <v>9762</v>
+        <v>9566</v>
       </c>
     </row>
     <row r="223">
@@ -2822,7 +2822,7 @@
         <v>221</v>
       </c>
       <c r="C223" t="n">
-        <v>11057</v>
+        <v>9194</v>
       </c>
     </row>
     <row r="224">
@@ -2833,7 +2833,7 @@
         <v>222</v>
       </c>
       <c r="C224" t="n">
-        <v>9283</v>
+        <v>8454</v>
       </c>
     </row>
     <row r="225">
@@ -2844,7 +2844,7 @@
         <v>223</v>
       </c>
       <c r="C225" t="n">
-        <v>11336</v>
+        <v>8454</v>
       </c>
     </row>
     <row r="226">
@@ -2855,7 +2855,7 @@
         <v>224</v>
       </c>
       <c r="C226" t="n">
-        <v>10430</v>
+        <v>8601</v>
       </c>
     </row>
     <row r="227">
@@ -2866,7 +2866,7 @@
         <v>225</v>
       </c>
       <c r="C227" t="n">
-        <v>10430</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="228">
@@ -2877,7 +2877,7 @@
         <v>226</v>
       </c>
       <c r="C228" t="n">
-        <v>9465</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="229">
@@ -2888,7 +2888,7 @@
         <v>227</v>
       </c>
       <c r="C229" t="n">
-        <v>9406</v>
+        <v>8693</v>
       </c>
     </row>
     <row r="230">
@@ -2899,7 +2899,7 @@
         <v>228</v>
       </c>
       <c r="C230" t="n">
-        <v>8982</v>
+        <v>8791</v>
       </c>
     </row>
     <row r="231">
@@ -2910,7 +2910,7 @@
         <v>229</v>
       </c>
       <c r="C231" t="n">
-        <v>8982</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="232">
@@ -2921,7 +2921,7 @@
         <v>230</v>
       </c>
       <c r="C232" t="n">
-        <v>8991</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="233">
@@ -2932,7 +2932,7 @@
         <v>231</v>
       </c>
       <c r="C233" t="n">
-        <v>8991</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="234">
@@ -2943,7 +2943,7 @@
         <v>232</v>
       </c>
       <c r="C234" t="n">
-        <v>8991</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="235">
@@ -2954,7 +2954,7 @@
         <v>233</v>
       </c>
       <c r="C235" t="n">
-        <v>8382</v>
+        <v>10047</v>
       </c>
     </row>
     <row r="236">
@@ -2965,7 +2965,7 @@
         <v>234</v>
       </c>
       <c r="C236" t="n">
-        <v>9226</v>
+        <v>9647</v>
       </c>
     </row>
     <row r="237">
@@ -2976,7 +2976,7 @@
         <v>235</v>
       </c>
       <c r="C237" t="n">
-        <v>9430</v>
+        <v>9647</v>
       </c>
     </row>
     <row r="238">
@@ -2987,7 +2987,7 @@
         <v>236</v>
       </c>
       <c r="C238" t="n">
-        <v>8382</v>
+        <v>9647</v>
       </c>
     </row>
     <row r="239">
@@ -2998,7 +2998,7 @@
         <v>237</v>
       </c>
       <c r="C239" t="n">
-        <v>11179</v>
+        <v>10109</v>
       </c>
     </row>
     <row r="240">
@@ -3009,7 +3009,7 @@
         <v>238</v>
       </c>
       <c r="C240" t="n">
-        <v>10207</v>
+        <v>10109</v>
       </c>
     </row>
     <row r="241">
@@ -3020,7 +3020,7 @@
         <v>239</v>
       </c>
       <c r="C241" t="n">
-        <v>9359</v>
+        <v>10109</v>
       </c>
     </row>
     <row r="242">
@@ -3031,7 +3031,7 @@
         <v>240</v>
       </c>
       <c r="C242" t="n">
-        <v>9359</v>
+        <v>10328</v>
       </c>
     </row>
     <row r="243">
@@ -3042,7 +3042,7 @@
         <v>241</v>
       </c>
       <c r="C243" t="n">
-        <v>9291</v>
+        <v>10359</v>
       </c>
     </row>
     <row r="244">
@@ -3053,7 +3053,7 @@
         <v>242</v>
       </c>
       <c r="C244" t="n">
-        <v>8221</v>
+        <v>10359</v>
       </c>
     </row>
     <row r="245">
@@ -3064,7 +3064,7 @@
         <v>243</v>
       </c>
       <c r="C245" t="n">
-        <v>8848</v>
+        <v>11304</v>
       </c>
     </row>
     <row r="246">
@@ -3075,7 +3075,7 @@
         <v>244</v>
       </c>
       <c r="C246" t="n">
-        <v>9344</v>
+        <v>11297</v>
       </c>
     </row>
     <row r="247">
@@ -3086,7 +3086,7 @@
         <v>245</v>
       </c>
       <c r="C247" t="n">
-        <v>9403</v>
+        <v>10589</v>
       </c>
     </row>
     <row r="248">
@@ -3097,7 +3097,7 @@
         <v>246</v>
       </c>
       <c r="C248" t="n">
-        <v>9403</v>
+        <v>11330</v>
       </c>
     </row>
     <row r="249">
@@ -3108,7 +3108,7 @@
         <v>247</v>
       </c>
       <c r="C249" t="n">
-        <v>8862</v>
+        <v>11209</v>
       </c>
     </row>
     <row r="250">
@@ -3119,7 +3119,7 @@
         <v>248</v>
       </c>
       <c r="C250" t="n">
-        <v>8812</v>
+        <v>11330</v>
       </c>
     </row>
     <row r="251">
@@ -3130,7 +3130,7 @@
         <v>249</v>
       </c>
       <c r="C251" t="n">
-        <v>8408</v>
+        <v>11330</v>
       </c>
     </row>
     <row r="252">
@@ -3141,7 +3141,7 @@
         <v>250</v>
       </c>
       <c r="C252" t="n">
-        <v>8995</v>
+        <v>11330</v>
       </c>
     </row>
     <row r="253">
@@ -3152,7 +3152,7 @@
         <v>251</v>
       </c>
       <c r="C253" t="n">
-        <v>9035</v>
+        <v>10592</v>
       </c>
     </row>
     <row r="254">
@@ -3163,7 +3163,7 @@
         <v>252</v>
       </c>
       <c r="C254" t="n">
-        <v>9299</v>
+        <v>10592</v>
       </c>
     </row>
     <row r="255">
@@ -3174,7 +3174,7 @@
         <v>253</v>
       </c>
       <c r="C255" t="n">
-        <v>9299</v>
+        <v>10635</v>
       </c>
     </row>
     <row r="256">
@@ -3185,7 +3185,7 @@
         <v>254</v>
       </c>
       <c r="C256" t="n">
-        <v>9234</v>
+        <v>10554</v>
       </c>
     </row>
     <row r="257">
@@ -3196,7 +3196,7 @@
         <v>255</v>
       </c>
       <c r="C257" t="n">
-        <v>9299</v>
+        <v>10554</v>
       </c>
     </row>
     <row r="258">
@@ -3207,7 +3207,7 @@
         <v>256</v>
       </c>
       <c r="C258" t="n">
-        <v>9315</v>
+        <v>9815</v>
       </c>
     </row>
     <row r="259">
@@ -3218,7 +3218,7 @@
         <v>257</v>
       </c>
       <c r="C259" t="n">
-        <v>8822</v>
+        <v>9815</v>
       </c>
     </row>
     <row r="260">
@@ -3229,7 +3229,7 @@
         <v>258</v>
       </c>
       <c r="C260" t="n">
-        <v>8822</v>
+        <v>9954</v>
       </c>
     </row>
     <row r="261">
@@ -3240,7 +3240,7 @@
         <v>259</v>
       </c>
       <c r="C261" t="n">
-        <v>8822</v>
+        <v>10061</v>
       </c>
     </row>
     <row r="262">
@@ -3251,7 +3251,7 @@
         <v>260</v>
       </c>
       <c r="C262" t="n">
-        <v>9561</v>
+        <v>9112</v>
       </c>
     </row>
     <row r="263">
@@ -3262,7 +3262,7 @@
         <v>261</v>
       </c>
       <c r="C263" t="n">
-        <v>9492</v>
+        <v>9112</v>
       </c>
     </row>
     <row r="264">
@@ -3273,7 +3273,7 @@
         <v>262</v>
       </c>
       <c r="C264" t="n">
-        <v>9492</v>
+        <v>9112</v>
       </c>
     </row>
     <row r="265">
@@ -3284,7 +3284,7 @@
         <v>263</v>
       </c>
       <c r="C265" t="n">
-        <v>9492</v>
+        <v>8934</v>
       </c>
     </row>
     <row r="266">
@@ -3295,7 +3295,7 @@
         <v>264</v>
       </c>
       <c r="C266" t="n">
-        <v>9693</v>
+        <v>8878</v>
       </c>
     </row>
     <row r="267">
@@ -3306,7 +3306,7 @@
         <v>265</v>
       </c>
       <c r="C267" t="n">
-        <v>10209</v>
+        <v>8878</v>
       </c>
     </row>
     <row r="268">
@@ -3317,7 +3317,7 @@
         <v>266</v>
       </c>
       <c r="C268" t="n">
-        <v>10495</v>
+        <v>8878</v>
       </c>
     </row>
     <row r="269">
@@ -3328,7 +3328,7 @@
         <v>267</v>
       </c>
       <c r="C269" t="n">
-        <v>10753</v>
+        <v>8878</v>
       </c>
     </row>
     <row r="270">
@@ -3339,7 +3339,7 @@
         <v>268</v>
       </c>
       <c r="C270" t="n">
-        <v>10753</v>
+        <v>8878</v>
       </c>
     </row>
     <row r="271">
@@ -3350,7 +3350,7 @@
         <v>269</v>
       </c>
       <c r="C271" t="n">
-        <v>11203</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="272">
@@ -3361,7 +3361,7 @@
         <v>270</v>
       </c>
       <c r="C272" t="n">
-        <v>10588</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="273">
@@ -3372,7 +3372,7 @@
         <v>271</v>
       </c>
       <c r="C273" t="n">
-        <v>10537</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="274">
@@ -3383,7 +3383,7 @@
         <v>272</v>
       </c>
       <c r="C274" t="n">
-        <v>10537</v>
+        <v>8678</v>
       </c>
     </row>
     <row r="275">
@@ -3394,7 +3394,7 @@
         <v>273</v>
       </c>
       <c r="C275" t="n">
-        <v>10516</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="276">
@@ -3405,7 +3405,7 @@
         <v>274</v>
       </c>
       <c r="C276" t="n">
-        <v>10752</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="277">
@@ -3416,7 +3416,7 @@
         <v>275</v>
       </c>
       <c r="C277" t="n">
-        <v>11185</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="278">
@@ -3427,7 +3427,7 @@
         <v>276</v>
       </c>
       <c r="C278" t="n">
-        <v>10538</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="279">
@@ -3438,7 +3438,7 @@
         <v>277</v>
       </c>
       <c r="C279" t="n">
-        <v>10516</v>
+        <v>7770</v>
       </c>
     </row>
     <row r="280">
@@ -3449,7 +3449,7 @@
         <v>278</v>
       </c>
       <c r="C280" t="n">
-        <v>10516</v>
+        <v>7846</v>
       </c>
     </row>
     <row r="281">
@@ -3460,7 +3460,7 @@
         <v>279</v>
       </c>
       <c r="C281" t="n">
-        <v>10515</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="282">
@@ -3471,7 +3471,7 @@
         <v>280</v>
       </c>
       <c r="C282" t="n">
-        <v>10200</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="283">
@@ -3482,7 +3482,7 @@
         <v>281</v>
       </c>
       <c r="C283" t="n">
-        <v>10012</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="284">
@@ -3493,7 +3493,7 @@
         <v>282</v>
       </c>
       <c r="C284" t="n">
-        <v>10012</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="285">
@@ -3504,7 +3504,7 @@
         <v>283</v>
       </c>
       <c r="C285" t="n">
-        <v>10012</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="286">
@@ -3515,7 +3515,7 @@
         <v>284</v>
       </c>
       <c r="C286" t="n">
-        <v>10012</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="287">
@@ -3526,7 +3526,7 @@
         <v>285</v>
       </c>
       <c r="C287" t="n">
-        <v>10709</v>
+        <v>8809</v>
       </c>
     </row>
     <row r="288">
@@ -3537,7 +3537,7 @@
         <v>286</v>
       </c>
       <c r="C288" t="n">
-        <v>10089</v>
+        <v>8631</v>
       </c>
     </row>
     <row r="289">
@@ -3548,7 +3548,7 @@
         <v>287</v>
       </c>
       <c r="C289" t="n">
-        <v>9619</v>
+        <v>8631</v>
       </c>
     </row>
     <row r="290">
@@ -3559,7 +3559,7 @@
         <v>288</v>
       </c>
       <c r="C290" t="n">
-        <v>8597</v>
+        <v>8631</v>
       </c>
     </row>
     <row r="291">
@@ -3570,7 +3570,7 @@
         <v>289</v>
       </c>
       <c r="C291" t="n">
-        <v>8597</v>
+        <v>8631</v>
       </c>
     </row>
     <row r="292">
@@ -3581,7 +3581,7 @@
         <v>290</v>
       </c>
       <c r="C292" t="n">
-        <v>8597</v>
+        <v>8792</v>
       </c>
     </row>
     <row r="293">
@@ -3592,7 +3592,7 @@
         <v>291</v>
       </c>
       <c r="C293" t="n">
-        <v>8597</v>
+        <v>8658</v>
       </c>
     </row>
     <row r="294">
@@ -3603,7 +3603,7 @@
         <v>292</v>
       </c>
       <c r="C294" t="n">
-        <v>8690</v>
+        <v>8631</v>
       </c>
     </row>
     <row r="295">
@@ -3614,7 +3614,7 @@
         <v>293</v>
       </c>
       <c r="C295" t="n">
-        <v>8690</v>
+        <v>8792</v>
       </c>
     </row>
     <row r="296">
@@ -3625,7 +3625,7 @@
         <v>294</v>
       </c>
       <c r="C296" t="n">
-        <v>9472</v>
+        <v>8827</v>
       </c>
     </row>
     <row r="297">
@@ -3636,7 +3636,7 @@
         <v>295</v>
       </c>
       <c r="C297" t="n">
-        <v>9222</v>
+        <v>8827</v>
       </c>
     </row>
     <row r="298">
@@ -3647,7 +3647,7 @@
         <v>296</v>
       </c>
       <c r="C298" t="n">
-        <v>9854</v>
+        <v>8792</v>
       </c>
     </row>
     <row r="299">
@@ -3658,7 +3658,7 @@
         <v>297</v>
       </c>
       <c r="C299" t="n">
-        <v>9998</v>
+        <v>8792</v>
       </c>
     </row>
     <row r="300">
@@ -3669,7 +3669,7 @@
         <v>298</v>
       </c>
       <c r="C300" t="n">
-        <v>8947</v>
+        <v>9629</v>
       </c>
     </row>
     <row r="301">
@@ -3680,7 +3680,7 @@
         <v>299</v>
       </c>
       <c r="C301" t="n">
-        <v>8871</v>
+        <v>8953</v>
       </c>
     </row>
     <row r="302">
@@ -3691,7 +3691,7 @@
         <v>300</v>
       </c>
       <c r="C302" t="n">
-        <v>8972</v>
+        <v>9359</v>
       </c>
     </row>
     <row r="303">
@@ -3702,7 +3702,7 @@
         <v>301</v>
       </c>
       <c r="C303" t="n">
-        <v>8972</v>
+        <v>9497</v>
       </c>
     </row>
     <row r="304">
@@ -3713,7 +3713,7 @@
         <v>302</v>
       </c>
       <c r="C304" t="n">
-        <v>8947</v>
+        <v>9284</v>
       </c>
     </row>
     <row r="305">
@@ -3724,7 +3724,7 @@
         <v>303</v>
       </c>
       <c r="C305" t="n">
-        <v>8415</v>
+        <v>9517</v>
       </c>
     </row>
     <row r="306">
@@ -3735,7 +3735,7 @@
         <v>304</v>
       </c>
       <c r="C306" t="n">
-        <v>9309</v>
+        <v>9524</v>
       </c>
     </row>
     <row r="307">
@@ -3746,7 +3746,7 @@
         <v>305</v>
       </c>
       <c r="C307" t="n">
-        <v>9698</v>
+        <v>9524</v>
       </c>
     </row>
     <row r="308">
@@ -3757,7 +3757,7 @@
         <v>306</v>
       </c>
       <c r="C308" t="n">
-        <v>9651</v>
+        <v>9524</v>
       </c>
     </row>
     <row r="309">
@@ -3768,7 +3768,7 @@
         <v>307</v>
       </c>
       <c r="C309" t="n">
-        <v>10564</v>
+        <v>9524</v>
       </c>
     </row>
     <row r="310">
@@ -3779,7 +3779,7 @@
         <v>308</v>
       </c>
       <c r="C310" t="n">
-        <v>10369</v>
+        <v>9487</v>
       </c>
     </row>
     <row r="311">
@@ -3790,7 +3790,7 @@
         <v>309</v>
       </c>
       <c r="C311" t="n">
-        <v>10734</v>
+        <v>9487</v>
       </c>
     </row>
     <row r="312">
@@ -3801,7 +3801,7 @@
         <v>310</v>
       </c>
       <c r="C312" t="n">
-        <v>11332</v>
+        <v>8407</v>
       </c>
     </row>
     <row r="313">
@@ -3812,7 +3812,7 @@
         <v>311</v>
       </c>
       <c r="C313" t="n">
-        <v>11126</v>
+        <v>9014</v>
       </c>
     </row>
     <row r="314">
@@ -3823,7 +3823,7 @@
         <v>312</v>
       </c>
       <c r="C314" t="n">
-        <v>10831</v>
+        <v>9487</v>
       </c>
     </row>
     <row r="315">
@@ -3834,7 +3834,7 @@
         <v>313</v>
       </c>
       <c r="C315" t="n">
-        <v>9484</v>
+        <v>9060</v>
       </c>
     </row>
     <row r="316">
@@ -3845,7 +3845,7 @@
         <v>314</v>
       </c>
       <c r="C316" t="n">
-        <v>9484</v>
+        <v>9060</v>
       </c>
     </row>
     <row r="317">
@@ -3856,7 +3856,7 @@
         <v>315</v>
       </c>
       <c r="C317" t="n">
-        <v>10365</v>
+        <v>9487</v>
       </c>
     </row>
     <row r="318">
@@ -3867,7 +3867,7 @@
         <v>316</v>
       </c>
       <c r="C318" t="n">
-        <v>9002</v>
+        <v>9487</v>
       </c>
     </row>
     <row r="319">
@@ -3878,7 +3878,7 @@
         <v>317</v>
       </c>
       <c r="C319" t="n">
-        <v>10043</v>
+        <v>9309</v>
       </c>
     </row>
     <row r="320">
@@ -3889,7 +3889,7 @@
         <v>318</v>
       </c>
       <c r="C320" t="n">
-        <v>9912</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="321">
@@ -3900,7 +3900,7 @@
         <v>319</v>
       </c>
       <c r="C321" t="n">
-        <v>10190</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="322">
@@ -3911,7 +3911,7 @@
         <v>320</v>
       </c>
       <c r="C322" t="n">
-        <v>9629</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="323">
@@ -3922,7 +3922,7 @@
         <v>321</v>
       </c>
       <c r="C323" t="n">
-        <v>9900</v>
+        <v>9070</v>
       </c>
     </row>
     <row r="324">
@@ -3933,7 +3933,7 @@
         <v>322</v>
       </c>
       <c r="C324" t="n">
-        <v>9900</v>
+        <v>9045</v>
       </c>
     </row>
     <row r="325">
@@ -3944,7 +3944,7 @@
         <v>323</v>
       </c>
       <c r="C325" t="n">
-        <v>9809</v>
+        <v>9045</v>
       </c>
     </row>
     <row r="326">
@@ -3955,7 +3955,7 @@
         <v>324</v>
       </c>
       <c r="C326" t="n">
-        <v>9809</v>
+        <v>9045</v>
       </c>
     </row>
     <row r="327">
@@ -3966,7 +3966,7 @@
         <v>325</v>
       </c>
       <c r="C327" t="n">
-        <v>9867</v>
+        <v>9045</v>
       </c>
     </row>
     <row r="328">
@@ -3977,7 +3977,7 @@
         <v>326</v>
       </c>
       <c r="C328" t="n">
-        <v>9280</v>
+        <v>9045</v>
       </c>
     </row>
     <row r="329">
@@ -3988,7 +3988,7 @@
         <v>327</v>
       </c>
       <c r="C329" t="n">
-        <v>9280</v>
+        <v>8938</v>
       </c>
     </row>
     <row r="330">
@@ -3999,7 +3999,7 @@
         <v>328</v>
       </c>
       <c r="C330" t="n">
-        <v>9805</v>
+        <v>8938</v>
       </c>
     </row>
     <row r="331">
@@ -4010,7 +4010,7 @@
         <v>329</v>
       </c>
       <c r="C331" t="n">
-        <v>9206</v>
+        <v>8938</v>
       </c>
     </row>
     <row r="332">
@@ -4021,7 +4021,7 @@
         <v>330</v>
       </c>
       <c r="C332" t="n">
-        <v>9206</v>
+        <v>8938</v>
       </c>
     </row>
     <row r="333">
@@ -4032,7 +4032,7 @@
         <v>331</v>
       </c>
       <c r="C333" t="n">
-        <v>9629</v>
+        <v>8938</v>
       </c>
     </row>
     <row r="334">
@@ -4043,7 +4043,7 @@
         <v>332</v>
       </c>
       <c r="C334" t="n">
-        <v>9629</v>
+        <v>8888</v>
       </c>
     </row>
     <row r="335">
@@ -4054,7 +4054,7 @@
         <v>333</v>
       </c>
       <c r="C335" t="n">
-        <v>9629</v>
+        <v>8938</v>
       </c>
     </row>
     <row r="336">
@@ -4065,7 +4065,7 @@
         <v>334</v>
       </c>
       <c r="C336" t="n">
-        <v>9881</v>
+        <v>8938</v>
       </c>
     </row>
     <row r="337">
@@ -4076,7 +4076,7 @@
         <v>335</v>
       </c>
       <c r="C337" t="n">
-        <v>9337</v>
+        <v>8910</v>
       </c>
     </row>
     <row r="338">
@@ -4087,7 +4087,7 @@
         <v>336</v>
       </c>
       <c r="C338" t="n">
-        <v>9337</v>
+        <v>8938</v>
       </c>
     </row>
     <row r="339">
@@ -4098,7 +4098,7 @@
         <v>337</v>
       </c>
       <c r="C339" t="n">
-        <v>9206</v>
+        <v>8938</v>
       </c>
     </row>
     <row r="340">
@@ -4109,7 +4109,7 @@
         <v>338</v>
       </c>
       <c r="C340" t="n">
-        <v>9614</v>
+        <v>8403</v>
       </c>
     </row>
     <row r="341">
@@ -4120,7 +4120,7 @@
         <v>339</v>
       </c>
       <c r="C341" t="n">
-        <v>9206</v>
+        <v>8403</v>
       </c>
     </row>
     <row r="342">
@@ -4131,7 +4131,7 @@
         <v>340</v>
       </c>
       <c r="C342" t="n">
-        <v>9206</v>
+        <v>8403</v>
       </c>
     </row>
     <row r="343">
@@ -4142,7 +4142,7 @@
         <v>341</v>
       </c>
       <c r="C343" t="n">
-        <v>9156</v>
+        <v>8403</v>
       </c>
     </row>
     <row r="344">
@@ -4153,7 +4153,7 @@
         <v>342</v>
       </c>
       <c r="C344" t="n">
-        <v>10157</v>
+        <v>8428</v>
       </c>
     </row>
     <row r="345">
@@ -4164,7 +4164,7 @@
         <v>343</v>
       </c>
       <c r="C345" t="n">
-        <v>9913</v>
+        <v>8720</v>
       </c>
     </row>
     <row r="346">
@@ -4175,7 +4175,7 @@
         <v>344</v>
       </c>
       <c r="C346" t="n">
-        <v>9457</v>
+        <v>8909</v>
       </c>
     </row>
     <row r="347">
@@ -4186,7 +4186,7 @@
         <v>345</v>
       </c>
       <c r="C347" t="n">
-        <v>9872</v>
+        <v>8909</v>
       </c>
     </row>
     <row r="348">
@@ -4197,7 +4197,7 @@
         <v>346</v>
       </c>
       <c r="C348" t="n">
-        <v>10236</v>
+        <v>8577</v>
       </c>
     </row>
     <row r="349">
@@ -4208,7 +4208,7 @@
         <v>347</v>
       </c>
       <c r="C349" t="n">
-        <v>10145</v>
+        <v>8577</v>
       </c>
     </row>
     <row r="350">
@@ -4219,7 +4219,7 @@
         <v>348</v>
       </c>
       <c r="C350" t="n">
-        <v>10554</v>
+        <v>8909</v>
       </c>
     </row>
     <row r="351">
@@ -4230,7 +4230,7 @@
         <v>349</v>
       </c>
       <c r="C351" t="n">
-        <v>10235</v>
+        <v>8909</v>
       </c>
     </row>
     <row r="352">
@@ -4241,7 +4241,7 @@
         <v>350</v>
       </c>
       <c r="C352" t="n">
-        <v>9886</v>
+        <v>8909</v>
       </c>
     </row>
     <row r="353">
@@ -4252,7 +4252,7 @@
         <v>351</v>
       </c>
       <c r="C353" t="n">
-        <v>9703</v>
+        <v>8909</v>
       </c>
     </row>
     <row r="354">
@@ -4263,7 +4263,7 @@
         <v>352</v>
       </c>
       <c r="C354" t="n">
-        <v>9526</v>
+        <v>8909</v>
       </c>
     </row>
     <row r="355">
@@ -4274,7 +4274,7 @@
         <v>353</v>
       </c>
       <c r="C355" t="n">
-        <v>10161</v>
+        <v>9327</v>
       </c>
     </row>
     <row r="356">
@@ -4285,7 +4285,7 @@
         <v>354</v>
       </c>
       <c r="C356" t="n">
-        <v>10161</v>
+        <v>9327</v>
       </c>
     </row>
     <row r="357">
@@ -4296,7 +4296,7 @@
         <v>355</v>
       </c>
       <c r="C357" t="n">
-        <v>9404</v>
+        <v>9327</v>
       </c>
     </row>
     <row r="358">
@@ -4307,7 +4307,7 @@
         <v>356</v>
       </c>
       <c r="C358" t="n">
-        <v>9404</v>
+        <v>9672</v>
       </c>
     </row>
     <row r="359">
@@ -4318,7 +4318,7 @@
         <v>357</v>
       </c>
       <c r="C359" t="n">
-        <v>9372</v>
+        <v>10501</v>
       </c>
     </row>
     <row r="360">
@@ -4329,7 +4329,7 @@
         <v>358</v>
       </c>
       <c r="C360" t="n">
-        <v>9422</v>
+        <v>10778</v>
       </c>
     </row>
     <row r="361">
@@ -4340,7 +4340,7 @@
         <v>359</v>
       </c>
       <c r="C361" t="n">
-        <v>9422</v>
+        <v>9578</v>
       </c>
     </row>
     <row r="362">
@@ -4351,7 +4351,7 @@
         <v>360</v>
       </c>
       <c r="C362" t="n">
-        <v>10299</v>
+        <v>10778</v>
       </c>
     </row>
     <row r="363">
@@ -4362,7 +4362,7 @@
         <v>361</v>
       </c>
       <c r="C363" t="n">
-        <v>10283</v>
+        <v>10778</v>
       </c>
     </row>
     <row r="364">
@@ -4373,7 +4373,7 @@
         <v>362</v>
       </c>
       <c r="C364" t="n">
-        <v>10283</v>
+        <v>10778</v>
       </c>
     </row>
     <row r="365">
@@ -4384,7 +4384,7 @@
         <v>363</v>
       </c>
       <c r="C365" t="n">
-        <v>10150</v>
+        <v>10778</v>
       </c>
     </row>
     <row r="366">
@@ -4395,7 +4395,7 @@
         <v>364</v>
       </c>
       <c r="C366" t="n">
-        <v>9795</v>
+        <v>10778</v>
       </c>
     </row>
     <row r="367">
@@ -4406,7 +4406,7 @@
         <v>365</v>
       </c>
       <c r="C367" t="n">
-        <v>8565</v>
+        <v>10278</v>
       </c>
     </row>
     <row r="368">
@@ -4417,7 +4417,7 @@
         <v>366</v>
       </c>
       <c r="C368" t="n">
-        <v>8775</v>
+        <v>10278</v>
       </c>
     </row>
     <row r="369">
@@ -4428,7 +4428,7 @@
         <v>367</v>
       </c>
       <c r="C369" t="n">
-        <v>9189</v>
+        <v>10814</v>
       </c>
     </row>
     <row r="370">
@@ -4439,7 +4439,7 @@
         <v>368</v>
       </c>
       <c r="C370" t="n">
-        <v>9476</v>
+        <v>10289</v>
       </c>
     </row>
     <row r="371">
@@ -4450,7 +4450,7 @@
         <v>369</v>
       </c>
       <c r="C371" t="n">
-        <v>10023</v>
+        <v>10289</v>
       </c>
     </row>
     <row r="372">
@@ -4461,7 +4461,7 @@
         <v>370</v>
       </c>
       <c r="C372" t="n">
-        <v>8565</v>
+        <v>10170</v>
       </c>
     </row>
     <row r="373">
@@ -4472,7 +4472,7 @@
         <v>371</v>
       </c>
       <c r="C373" t="n">
-        <v>9532</v>
+        <v>10170</v>
       </c>
     </row>
     <row r="374">
@@ -4483,7 +4483,7 @@
         <v>372</v>
       </c>
       <c r="C374" t="n">
-        <v>9627</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="375">
@@ -4494,7 +4494,7 @@
         <v>373</v>
       </c>
       <c r="C375" t="n">
-        <v>9762</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="376">
@@ -4505,7 +4505,7 @@
         <v>374</v>
       </c>
       <c r="C376" t="n">
-        <v>9611</v>
+        <v>8795</v>
       </c>
     </row>
     <row r="377">
@@ -4516,7 +4516,7 @@
         <v>375</v>
       </c>
       <c r="C377" t="n">
-        <v>9162</v>
+        <v>8794</v>
       </c>
     </row>
     <row r="378">
@@ -4527,7 +4527,7 @@
         <v>376</v>
       </c>
       <c r="C378" t="n">
-        <v>9162</v>
+        <v>8794</v>
       </c>
     </row>
     <row r="379">
@@ -4538,7 +4538,7 @@
         <v>377</v>
       </c>
       <c r="C379" t="n">
-        <v>9330</v>
+        <v>8794</v>
       </c>
     </row>
     <row r="380">
@@ -4549,7 +4549,7 @@
         <v>378</v>
       </c>
       <c r="C380" t="n">
-        <v>9330</v>
+        <v>8452</v>
       </c>
     </row>
     <row r="381">
@@ -4560,7 +4560,7 @@
         <v>379</v>
       </c>
       <c r="C381" t="n">
-        <v>9069</v>
+        <v>8946</v>
       </c>
     </row>
     <row r="382">
@@ -4571,7 +4571,7 @@
         <v>380</v>
       </c>
       <c r="C382" t="n">
-        <v>9069</v>
+        <v>9299</v>
       </c>
     </row>
     <row r="383">
@@ -4582,7 +4582,7 @@
         <v>381</v>
       </c>
       <c r="C383" t="n">
-        <v>9069</v>
+        <v>9299</v>
       </c>
     </row>
     <row r="384">
@@ -4593,7 +4593,7 @@
         <v>382</v>
       </c>
       <c r="C384" t="n">
-        <v>8879</v>
+        <v>9311</v>
       </c>
     </row>
     <row r="385">
@@ -4604,7 +4604,7 @@
         <v>383</v>
       </c>
       <c r="C385" t="n">
-        <v>8857</v>
+        <v>9319</v>
       </c>
     </row>
     <row r="386">
@@ -4615,7 +4615,7 @@
         <v>384</v>
       </c>
       <c r="C386" t="n">
-        <v>8879</v>
+        <v>9294</v>
       </c>
     </row>
     <row r="387">
@@ -4626,7 +4626,7 @@
         <v>385</v>
       </c>
       <c r="C387" t="n">
-        <v>8879</v>
+        <v>9294</v>
       </c>
     </row>
     <row r="388">
@@ -4637,7 +4637,7 @@
         <v>386</v>
       </c>
       <c r="C388" t="n">
-        <v>8879</v>
+        <v>9294</v>
       </c>
     </row>
     <row r="389">
@@ -4648,7 +4648,7 @@
         <v>387</v>
       </c>
       <c r="C389" t="n">
-        <v>8879</v>
+        <v>8992</v>
       </c>
     </row>
     <row r="390">
@@ -4659,7 +4659,7 @@
         <v>388</v>
       </c>
       <c r="C390" t="n">
-        <v>9491</v>
+        <v>8992</v>
       </c>
     </row>
     <row r="391">
@@ -4670,7 +4670,7 @@
         <v>389</v>
       </c>
       <c r="C391" t="n">
-        <v>8982</v>
+        <v>9047</v>
       </c>
     </row>
     <row r="392">
@@ -4681,7 +4681,7 @@
         <v>390</v>
       </c>
       <c r="C392" t="n">
-        <v>8879</v>
+        <v>9294</v>
       </c>
     </row>
     <row r="393">
@@ -4692,7 +4692,7 @@
         <v>391</v>
       </c>
       <c r="C393" t="n">
-        <v>8879</v>
+        <v>9322</v>
       </c>
     </row>
     <row r="394">
@@ -4703,7 +4703,7 @@
         <v>392</v>
       </c>
       <c r="C394" t="n">
-        <v>9056</v>
+        <v>9322</v>
       </c>
     </row>
     <row r="395">
@@ -4714,7 +4714,7 @@
         <v>393</v>
       </c>
       <c r="C395" t="n">
-        <v>9056</v>
+        <v>9226</v>
       </c>
     </row>
     <row r="396">
@@ -4725,7 +4725,7 @@
         <v>394</v>
       </c>
       <c r="C396" t="n">
-        <v>9047</v>
+        <v>9226</v>
       </c>
     </row>
     <row r="397">
@@ -4736,7 +4736,7 @@
         <v>395</v>
       </c>
       <c r="C397" t="n">
-        <v>9047</v>
+        <v>9226</v>
       </c>
     </row>
     <row r="398">
@@ -4747,7 +4747,7 @@
         <v>396</v>
       </c>
       <c r="C398" t="n">
-        <v>9293</v>
+        <v>9226</v>
       </c>
     </row>
     <row r="399">
@@ -4758,7 +4758,7 @@
         <v>397</v>
       </c>
       <c r="C399" t="n">
-        <v>9183</v>
+        <v>8948</v>
       </c>
     </row>
     <row r="400">
@@ -4769,7 +4769,7 @@
         <v>398</v>
       </c>
       <c r="C400" t="n">
-        <v>9555</v>
+        <v>9548</v>
       </c>
     </row>
     <row r="401">
@@ -4780,7 +4780,7 @@
         <v>399</v>
       </c>
       <c r="C401" t="n">
-        <v>9526</v>
+        <v>8992</v>
       </c>
     </row>
     <row r="402">
@@ -4791,7 +4791,7 @@
         <v>400</v>
       </c>
       <c r="C402" t="n">
-        <v>9183</v>
+        <v>8904</v>
       </c>
     </row>
     <row r="403">
@@ -4802,7 +4802,7 @@
         <v>401</v>
       </c>
       <c r="C403" t="n">
-        <v>8804</v>
+        <v>8904</v>
       </c>
     </row>
     <row r="404">
@@ -4813,7 +4813,7 @@
         <v>402</v>
       </c>
       <c r="C404" t="n">
-        <v>9522</v>
+        <v>8821</v>
       </c>
     </row>
     <row r="405">
@@ -4824,7 +4824,7 @@
         <v>403</v>
       </c>
       <c r="C405" t="n">
-        <v>8314</v>
+        <v>8904</v>
       </c>
     </row>
     <row r="406">
@@ -4835,7 +4835,7 @@
         <v>404</v>
       </c>
       <c r="C406" t="n">
-        <v>8314</v>
+        <v>8904</v>
       </c>
     </row>
     <row r="407">
@@ -4846,7 +4846,7 @@
         <v>405</v>
       </c>
       <c r="C407" t="n">
-        <v>9517</v>
+        <v>8904</v>
       </c>
     </row>
     <row r="408">
@@ -4857,7 +4857,7 @@
         <v>406</v>
       </c>
       <c r="C408" t="n">
-        <v>9409</v>
+        <v>8904</v>
       </c>
     </row>
     <row r="409">
@@ -4868,7 +4868,7 @@
         <v>407</v>
       </c>
       <c r="C409" t="n">
-        <v>9245</v>
+        <v>8904</v>
       </c>
     </row>
     <row r="410">
@@ -4879,7 +4879,7 @@
         <v>408</v>
       </c>
       <c r="C410" t="n">
-        <v>8845</v>
+        <v>9370</v>
       </c>
     </row>
     <row r="411">
@@ -4890,7 +4890,7 @@
         <v>409</v>
       </c>
       <c r="C411" t="n">
-        <v>10342</v>
+        <v>9849</v>
       </c>
     </row>
     <row r="412">
@@ -4901,7 +4901,7 @@
         <v>410</v>
       </c>
       <c r="C412" t="n">
-        <v>10952</v>
+        <v>9849</v>
       </c>
     </row>
     <row r="413">
@@ -4912,7 +4912,7 @@
         <v>411</v>
       </c>
       <c r="C413" t="n">
-        <v>9845</v>
+        <v>9665</v>
       </c>
     </row>
     <row r="414">
@@ -4923,7 +4923,7 @@
         <v>412</v>
       </c>
       <c r="C414" t="n">
-        <v>9845</v>
+        <v>9665</v>
       </c>
     </row>
     <row r="415">
@@ -4934,7 +4934,7 @@
         <v>413</v>
       </c>
       <c r="C415" t="n">
-        <v>9995</v>
+        <v>10202</v>
       </c>
     </row>
     <row r="416">
@@ -4945,7 +4945,7 @@
         <v>414</v>
       </c>
       <c r="C416" t="n">
-        <v>10944</v>
+        <v>10202</v>
       </c>
     </row>
     <row r="417">
@@ -4956,7 +4956,7 @@
         <v>415</v>
       </c>
       <c r="C417" t="n">
-        <v>10594</v>
+        <v>9591</v>
       </c>
     </row>
     <row r="418">
@@ -4967,7 +4967,7 @@
         <v>416</v>
       </c>
       <c r="C418" t="n">
-        <v>10144</v>
+        <v>9197</v>
       </c>
     </row>
     <row r="419">
@@ -4978,7 +4978,7 @@
         <v>417</v>
       </c>
       <c r="C419" t="n">
-        <v>9615</v>
+        <v>9197</v>
       </c>
     </row>
     <row r="420">
@@ -4989,7 +4989,7 @@
         <v>418</v>
       </c>
       <c r="C420" t="n">
-        <v>9462</v>
+        <v>9197</v>
       </c>
     </row>
     <row r="421">
@@ -5000,7 +5000,7 @@
         <v>419</v>
       </c>
       <c r="C421" t="n">
-        <v>9937</v>
+        <v>10202</v>
       </c>
     </row>
     <row r="422">
@@ -5011,7 +5011,7 @@
         <v>420</v>
       </c>
       <c r="C422" t="n">
-        <v>10135</v>
+        <v>10202</v>
       </c>
     </row>
     <row r="423">
@@ -5022,7 +5022,7 @@
         <v>421</v>
       </c>
       <c r="C423" t="n">
-        <v>9940</v>
+        <v>9843</v>
       </c>
     </row>
     <row r="424">
@@ -5033,7 +5033,7 @@
         <v>422</v>
       </c>
       <c r="C424" t="n">
-        <v>10132</v>
+        <v>10632</v>
       </c>
     </row>
     <row r="425">
@@ -5044,7 +5044,7 @@
         <v>423</v>
       </c>
       <c r="C425" t="n">
-        <v>9860</v>
+        <v>10273</v>
       </c>
     </row>
     <row r="426">
@@ -5055,7 +5055,7 @@
         <v>424</v>
       </c>
       <c r="C426" t="n">
-        <v>9810</v>
+        <v>10119</v>
       </c>
     </row>
     <row r="427">
@@ -5066,7 +5066,7 @@
         <v>425</v>
       </c>
       <c r="C427" t="n">
-        <v>9631</v>
+        <v>9718</v>
       </c>
     </row>
     <row r="428">
@@ -5077,7 +5077,7 @@
         <v>426</v>
       </c>
       <c r="C428" t="n">
-        <v>9631</v>
+        <v>9718</v>
       </c>
     </row>
     <row r="429">
@@ -5088,7 +5088,7 @@
         <v>427</v>
       </c>
       <c r="C429" t="n">
-        <v>9631</v>
+        <v>9466</v>
       </c>
     </row>
     <row r="430">
@@ -5099,7 +5099,7 @@
         <v>428</v>
       </c>
       <c r="C430" t="n">
-        <v>9941</v>
+        <v>9580</v>
       </c>
     </row>
     <row r="431">
@@ -5110,7 +5110,7 @@
         <v>429</v>
       </c>
       <c r="C431" t="n">
-        <v>8582</v>
+        <v>9580</v>
       </c>
     </row>
     <row r="432">
@@ -5121,7 +5121,7 @@
         <v>430</v>
       </c>
       <c r="C432" t="n">
-        <v>8582</v>
+        <v>9580</v>
       </c>
     </row>
     <row r="433">
@@ -5132,7 +5132,7 @@
         <v>431</v>
       </c>
       <c r="C433" t="n">
-        <v>9175</v>
+        <v>10068</v>
       </c>
     </row>
     <row r="434">
@@ -5143,7 +5143,7 @@
         <v>432</v>
       </c>
       <c r="C434" t="n">
-        <v>9175</v>
+        <v>10068</v>
       </c>
     </row>
     <row r="435">
@@ -5154,7 +5154,7 @@
         <v>433</v>
       </c>
       <c r="C435" t="n">
-        <v>9307</v>
+        <v>10386</v>
       </c>
     </row>
     <row r="436">
@@ -5165,7 +5165,7 @@
         <v>434</v>
       </c>
       <c r="C436" t="n">
-        <v>8445</v>
+        <v>9146</v>
       </c>
     </row>
     <row r="437">
@@ -5176,7 +5176,7 @@
         <v>435</v>
       </c>
       <c r="C437" t="n">
-        <v>7900</v>
+        <v>9146</v>
       </c>
     </row>
     <row r="438">
@@ -5187,7 +5187,7 @@
         <v>436</v>
       </c>
       <c r="C438" t="n">
-        <v>9052</v>
+        <v>9146</v>
       </c>
     </row>
     <row r="439">
@@ -5198,7 +5198,7 @@
         <v>437</v>
       </c>
       <c r="C439" t="n">
-        <v>8302</v>
+        <v>9146</v>
       </c>
     </row>
     <row r="440">
@@ -5209,7 +5209,7 @@
         <v>438</v>
       </c>
       <c r="C440" t="n">
-        <v>8775</v>
+        <v>9071</v>
       </c>
     </row>
     <row r="441">
@@ -5220,7 +5220,7 @@
         <v>439</v>
       </c>
       <c r="C441" t="n">
-        <v>9494</v>
+        <v>9071</v>
       </c>
     </row>
     <row r="442">
@@ -5231,7 +5231,7 @@
         <v>440</v>
       </c>
       <c r="C442" t="n">
-        <v>9734</v>
+        <v>9052</v>
       </c>
     </row>
     <row r="443">
@@ -5242,7 +5242,7 @@
         <v>441</v>
       </c>
       <c r="C443" t="n">
-        <v>9842</v>
+        <v>9052</v>
       </c>
     </row>
     <row r="444">
@@ -5253,7 +5253,7 @@
         <v>442</v>
       </c>
       <c r="C444" t="n">
-        <v>9842</v>
+        <v>8694</v>
       </c>
     </row>
     <row r="445">
@@ -5264,7 +5264,7 @@
         <v>443</v>
       </c>
       <c r="C445" t="n">
-        <v>9631</v>
+        <v>8694</v>
       </c>
     </row>
     <row r="446">
@@ -5275,7 +5275,7 @@
         <v>444</v>
       </c>
       <c r="C446" t="n">
-        <v>9659</v>
+        <v>8893</v>
       </c>
     </row>
     <row r="447">
@@ -5286,7 +5286,7 @@
         <v>445</v>
       </c>
       <c r="C447" t="n">
-        <v>10294</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="448">
@@ -5297,7 +5297,7 @@
         <v>446</v>
       </c>
       <c r="C448" t="n">
-        <v>10544</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="449">
@@ -5308,7 +5308,7 @@
         <v>447</v>
       </c>
       <c r="C449" t="n">
-        <v>10603</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="450">
@@ -5319,7 +5319,7 @@
         <v>448</v>
       </c>
       <c r="C450" t="n">
-        <v>11107</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="451">
@@ -5330,7 +5330,7 @@
         <v>449</v>
       </c>
       <c r="C451" t="n">
-        <v>9696</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="452">
@@ -5341,7 +5341,7 @@
         <v>450</v>
       </c>
       <c r="C452" t="n">
-        <v>10498</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="453">
@@ -5352,7 +5352,7 @@
         <v>451</v>
       </c>
       <c r="C453" t="n">
-        <v>9826</v>
+        <v>9024</v>
       </c>
     </row>
     <row r="454">
@@ -5363,7 +5363,7 @@
         <v>452</v>
       </c>
       <c r="C454" t="n">
-        <v>9826</v>
+        <v>9024</v>
       </c>
     </row>
     <row r="455">
@@ -5374,7 +5374,7 @@
         <v>453</v>
       </c>
       <c r="C455" t="n">
-        <v>9978</v>
+        <v>9140</v>
       </c>
     </row>
     <row r="456">
@@ -5385,7 +5385,7 @@
         <v>454</v>
       </c>
       <c r="C456" t="n">
-        <v>9999</v>
+        <v>8818</v>
       </c>
     </row>
     <row r="457">
@@ -5396,7 +5396,7 @@
         <v>455</v>
       </c>
       <c r="C457" t="n">
-        <v>9999</v>
+        <v>8341</v>
       </c>
     </row>
     <row r="458">
@@ -5407,7 +5407,7 @@
         <v>456</v>
       </c>
       <c r="C458" t="n">
-        <v>10742</v>
+        <v>8818</v>
       </c>
     </row>
     <row r="459">
@@ -5418,7 +5418,7 @@
         <v>457</v>
       </c>
       <c r="C459" t="n">
-        <v>9702</v>
+        <v>8913</v>
       </c>
     </row>
     <row r="460">
@@ -5429,7 +5429,7 @@
         <v>458</v>
       </c>
       <c r="C460" t="n">
-        <v>10614</v>
+        <v>8913</v>
       </c>
     </row>
     <row r="461">
@@ -5440,7 +5440,7 @@
         <v>459</v>
       </c>
       <c r="C461" t="n">
-        <v>10145</v>
+        <v>8913</v>
       </c>
     </row>
     <row r="462">
@@ -5451,7 +5451,7 @@
         <v>460</v>
       </c>
       <c r="C462" t="n">
-        <v>10525</v>
+        <v>8913</v>
       </c>
     </row>
     <row r="463">
@@ -5462,7 +5462,7 @@
         <v>461</v>
       </c>
       <c r="C463" t="n">
-        <v>10740</v>
+        <v>9055</v>
       </c>
     </row>
     <row r="464">
@@ -5473,7 +5473,7 @@
         <v>462</v>
       </c>
       <c r="C464" t="n">
-        <v>10570</v>
+        <v>8786</v>
       </c>
     </row>
     <row r="465">
@@ -5484,7 +5484,7 @@
         <v>463</v>
       </c>
       <c r="C465" t="n">
-        <v>11036</v>
+        <v>8341</v>
       </c>
     </row>
     <row r="466">
@@ -5495,7 +5495,7 @@
         <v>464</v>
       </c>
       <c r="C466" t="n">
-        <v>11036</v>
+        <v>8341</v>
       </c>
     </row>
     <row r="467">
@@ -5506,7 +5506,7 @@
         <v>465</v>
       </c>
       <c r="C467" t="n">
-        <v>10966</v>
+        <v>8341</v>
       </c>
     </row>
     <row r="468">
@@ -5517,7 +5517,7 @@
         <v>466</v>
       </c>
       <c r="C468" t="n">
-        <v>10561</v>
+        <v>9680</v>
       </c>
     </row>
     <row r="469">
@@ -5528,7 +5528,7 @@
         <v>467</v>
       </c>
       <c r="C469" t="n">
-        <v>10370</v>
+        <v>9937</v>
       </c>
     </row>
     <row r="470">
@@ -5539,7 +5539,7 @@
         <v>468</v>
       </c>
       <c r="C470" t="n">
-        <v>11094</v>
+        <v>9455</v>
       </c>
     </row>
     <row r="471">
@@ -5550,7 +5550,7 @@
         <v>469</v>
       </c>
       <c r="C471" t="n">
-        <v>9596</v>
+        <v>10031</v>
       </c>
     </row>
     <row r="472">
@@ -5561,7 +5561,7 @@
         <v>470</v>
       </c>
       <c r="C472" t="n">
-        <v>9596</v>
+        <v>9648</v>
       </c>
     </row>
     <row r="473">
@@ -5572,7 +5572,7 @@
         <v>471</v>
       </c>
       <c r="C473" t="n">
-        <v>10600</v>
+        <v>10354</v>
       </c>
     </row>
     <row r="474">
@@ -5583,7 +5583,7 @@
         <v>472</v>
       </c>
       <c r="C474" t="n">
-        <v>10178</v>
+        <v>10563</v>
       </c>
     </row>
     <row r="475">
@@ -5594,7 +5594,7 @@
         <v>473</v>
       </c>
       <c r="C475" t="n">
-        <v>9508</v>
+        <v>10563</v>
       </c>
     </row>
     <row r="476">
@@ -5605,7 +5605,7 @@
         <v>474</v>
       </c>
       <c r="C476" t="n">
-        <v>9508</v>
+        <v>10563</v>
       </c>
     </row>
     <row r="477">
@@ -5616,7 +5616,7 @@
         <v>475</v>
       </c>
       <c r="C477" t="n">
-        <v>8992</v>
+        <v>10414</v>
       </c>
     </row>
     <row r="478">
@@ -5627,7 +5627,7 @@
         <v>476</v>
       </c>
       <c r="C478" t="n">
-        <v>9760</v>
+        <v>10043</v>
       </c>
     </row>
     <row r="479">
@@ -5638,7 +5638,7 @@
         <v>477</v>
       </c>
       <c r="C479" t="n">
-        <v>9760</v>
+        <v>10899</v>
       </c>
     </row>
     <row r="480">
@@ -5649,7 +5649,7 @@
         <v>478</v>
       </c>
       <c r="C480" t="n">
-        <v>9027</v>
+        <v>10899</v>
       </c>
     </row>
     <row r="481">
@@ -5660,7 +5660,7 @@
         <v>479</v>
       </c>
       <c r="C481" t="n">
-        <v>9879</v>
+        <v>10899</v>
       </c>
     </row>
     <row r="482">
@@ -5671,7 +5671,7 @@
         <v>480</v>
       </c>
       <c r="C482" t="n">
-        <v>9403</v>
+        <v>9822</v>
       </c>
     </row>
     <row r="483">
@@ -5682,7 +5682,7 @@
         <v>481</v>
       </c>
       <c r="C483" t="n">
-        <v>8931</v>
+        <v>9351</v>
       </c>
     </row>
     <row r="484">
@@ -5693,7 +5693,7 @@
         <v>482</v>
       </c>
       <c r="C484" t="n">
-        <v>9553</v>
+        <v>8228</v>
       </c>
     </row>
     <row r="485">
@@ -5704,7 +5704,7 @@
         <v>483</v>
       </c>
       <c r="C485" t="n">
-        <v>10307</v>
+        <v>8175</v>
       </c>
     </row>
     <row r="486">
@@ -5715,7 +5715,7 @@
         <v>484</v>
       </c>
       <c r="C486" t="n">
-        <v>10311</v>
+        <v>8810</v>
       </c>
     </row>
     <row r="487">
@@ -5726,7 +5726,7 @@
         <v>485</v>
       </c>
       <c r="C487" t="n">
-        <v>10664</v>
+        <v>9632</v>
       </c>
     </row>
     <row r="488">
@@ -5737,7 +5737,7 @@
         <v>486</v>
       </c>
       <c r="C488" t="n">
-        <v>10388</v>
+        <v>9531</v>
       </c>
     </row>
     <row r="489">
@@ -5748,7 +5748,7 @@
         <v>487</v>
       </c>
       <c r="C489" t="n">
-        <v>10388</v>
+        <v>9531</v>
       </c>
     </row>
     <row r="490">
@@ -5759,7 +5759,7 @@
         <v>488</v>
       </c>
       <c r="C490" t="n">
-        <v>10834</v>
+        <v>9634</v>
       </c>
     </row>
     <row r="491">
@@ -5770,7 +5770,7 @@
         <v>489</v>
       </c>
       <c r="C491" t="n">
-        <v>9662</v>
+        <v>9634</v>
       </c>
     </row>
     <row r="492">
@@ -5781,7 +5781,7 @@
         <v>490</v>
       </c>
       <c r="C492" t="n">
-        <v>9901</v>
+        <v>9531</v>
       </c>
     </row>
     <row r="493">
@@ -5792,7 +5792,7 @@
         <v>491</v>
       </c>
       <c r="C493" t="n">
-        <v>10305</v>
+        <v>9434</v>
       </c>
     </row>
     <row r="494">
@@ -5803,7 +5803,7 @@
         <v>492</v>
       </c>
       <c r="C494" t="n">
-        <v>9901</v>
+        <v>9843</v>
       </c>
     </row>
     <row r="495">
@@ -5814,7 +5814,7 @@
         <v>493</v>
       </c>
       <c r="C495" t="n">
-        <v>9278</v>
+        <v>9843</v>
       </c>
     </row>
     <row r="496">
@@ -5825,7 +5825,7 @@
         <v>494</v>
       </c>
       <c r="C496" t="n">
-        <v>9901</v>
+        <v>9511</v>
       </c>
     </row>
     <row r="497">
@@ -5836,7 +5836,7 @@
         <v>495</v>
       </c>
       <c r="C497" t="n">
-        <v>10757</v>
+        <v>8926</v>
       </c>
     </row>
     <row r="498">
@@ -5847,7 +5847,7 @@
         <v>496</v>
       </c>
       <c r="C498" t="n">
-        <v>11695</v>
+        <v>8926</v>
       </c>
     </row>
     <row r="499">
@@ -5858,7 +5858,7 @@
         <v>497</v>
       </c>
       <c r="C499" t="n">
-        <v>11160</v>
+        <v>8821</v>
       </c>
     </row>
     <row r="500">
@@ -5869,7 +5869,7 @@
         <v>498</v>
       </c>
       <c r="C500" t="n">
-        <v>11160</v>
+        <v>8926</v>
       </c>
     </row>
     <row r="501">
@@ -5880,7 +5880,7 @@
         <v>499</v>
       </c>
       <c r="C501" t="n">
-        <v>11160</v>
+        <v>8926</v>
       </c>
     </row>
     <row r="502">
@@ -5891,7 +5891,7 @@
         <v>500</v>
       </c>
       <c r="C502" t="n">
-        <v>11714</v>
+        <v>8926</v>
       </c>
     </row>
     <row r="503">
@@ -5902,7 +5902,7 @@
         <v>501</v>
       </c>
       <c r="C503" t="n">
-        <v>11538</v>
+        <v>8394</v>
       </c>
     </row>
     <row r="504">
@@ -5913,7 +5913,7 @@
         <v>502</v>
       </c>
       <c r="C504" t="n">
-        <v>11029</v>
+        <v>8394</v>
       </c>
     </row>
     <row r="505">
@@ -5924,7 +5924,7 @@
         <v>503</v>
       </c>
       <c r="C505" t="n">
-        <v>10952</v>
+        <v>8394</v>
       </c>
     </row>
     <row r="506">
@@ -5935,7 +5935,7 @@
         <v>504</v>
       </c>
       <c r="C506" t="n">
-        <v>10952</v>
+        <v>8394</v>
       </c>
     </row>
     <row r="507">
@@ -5946,7 +5946,7 @@
         <v>505</v>
       </c>
       <c r="C507" t="n">
-        <v>12169</v>
+        <v>8394</v>
       </c>
     </row>
     <row r="508">
@@ -5957,7 +5957,7 @@
         <v>506</v>
       </c>
       <c r="C508" t="n">
-        <v>12169</v>
+        <v>8394</v>
       </c>
     </row>
     <row r="509">
@@ -5968,7 +5968,7 @@
         <v>507</v>
       </c>
       <c r="C509" t="n">
-        <v>10648</v>
+        <v>8394</v>
       </c>
     </row>
     <row r="510">
@@ -5979,7 +5979,7 @@
         <v>508</v>
       </c>
       <c r="C510" t="n">
-        <v>10979</v>
+        <v>8394</v>
       </c>
     </row>
     <row r="511">
@@ -5990,7 +5990,7 @@
         <v>509</v>
       </c>
       <c r="C511" t="n">
-        <v>12743</v>
+        <v>8394</v>
       </c>
     </row>
     <row r="512">
@@ -6001,7 +6001,7 @@
         <v>510</v>
       </c>
       <c r="C512" t="n">
-        <v>11319</v>
+        <v>8394</v>
       </c>
     </row>
     <row r="513">
@@ -6012,7 +6012,7 @@
         <v>511</v>
       </c>
       <c r="C513" t="n">
-        <v>10334</v>
+        <v>8884</v>
       </c>
     </row>
     <row r="514">
@@ -6023,7 +6023,7 @@
         <v>512</v>
       </c>
       <c r="C514" t="n">
-        <v>9605</v>
+        <v>9180</v>
       </c>
     </row>
     <row r="515">
@@ -6034,7 +6034,7 @@
         <v>513</v>
       </c>
       <c r="C515" t="n">
-        <v>10979</v>
+        <v>9344</v>
       </c>
     </row>
     <row r="516">
@@ -6045,7 +6045,7 @@
         <v>514</v>
       </c>
       <c r="C516" t="n">
-        <v>10578</v>
+        <v>9077</v>
       </c>
     </row>
     <row r="517">
@@ -6056,7 +6056,7 @@
         <v>515</v>
       </c>
       <c r="C517" t="n">
-        <v>10524</v>
+        <v>9077</v>
       </c>
     </row>
     <row r="518">
@@ -6067,7 +6067,7 @@
         <v>516</v>
       </c>
       <c r="C518" t="n">
-        <v>10250</v>
+        <v>9077</v>
       </c>
     </row>
     <row r="519">
@@ -6078,7 +6078,7 @@
         <v>517</v>
       </c>
       <c r="C519" t="n">
-        <v>9835</v>
+        <v>9077</v>
       </c>
     </row>
     <row r="520">
@@ -6089,7 +6089,7 @@
         <v>518</v>
       </c>
       <c r="C520" t="n">
-        <v>10204</v>
+        <v>9499</v>
       </c>
     </row>
     <row r="521">
@@ -6100,7 +6100,7 @@
         <v>519</v>
       </c>
       <c r="C521" t="n">
-        <v>9841</v>
+        <v>9499</v>
       </c>
     </row>
     <row r="522">
@@ -6111,7 +6111,7 @@
         <v>520</v>
       </c>
       <c r="C522" t="n">
-        <v>10125</v>
+        <v>9698</v>
       </c>
     </row>
     <row r="523">
@@ -6122,7 +6122,7 @@
         <v>521</v>
       </c>
       <c r="C523" t="n">
-        <v>9674</v>
+        <v>9698</v>
       </c>
     </row>
     <row r="524">
@@ -6133,7 +6133,7 @@
         <v>522</v>
       </c>
       <c r="C524" t="n">
-        <v>9586</v>
+        <v>9872</v>
       </c>
     </row>
     <row r="525">
@@ -6144,7 +6144,7 @@
         <v>523</v>
       </c>
       <c r="C525" t="n">
-        <v>9586</v>
+        <v>9812</v>
       </c>
     </row>
     <row r="526">
@@ -6155,7 +6155,7 @@
         <v>524</v>
       </c>
       <c r="C526" t="n">
-        <v>9586</v>
+        <v>9812</v>
       </c>
     </row>
     <row r="527">
@@ -6166,7 +6166,7 @@
         <v>525</v>
       </c>
       <c r="C527" t="n">
-        <v>9543</v>
+        <v>9787</v>
       </c>
     </row>
     <row r="528">
@@ -6177,7 +6177,7 @@
         <v>526</v>
       </c>
       <c r="C528" t="n">
-        <v>9831</v>
+        <v>9812</v>
       </c>
     </row>
     <row r="529">
@@ -6188,7 +6188,7 @@
         <v>527</v>
       </c>
       <c r="C529" t="n">
-        <v>10348</v>
+        <v>9512</v>
       </c>
     </row>
     <row r="530">
@@ -6199,7 +6199,7 @@
         <v>528</v>
       </c>
       <c r="C530" t="n">
-        <v>10443</v>
+        <v>9872</v>
       </c>
     </row>
     <row r="531">
@@ -6210,7 +6210,7 @@
         <v>529</v>
       </c>
       <c r="C531" t="n">
-        <v>10443</v>
+        <v>9872</v>
       </c>
     </row>
     <row r="532">
@@ -6221,7 +6221,7 @@
         <v>530</v>
       </c>
       <c r="C532" t="n">
-        <v>10014</v>
+        <v>9433</v>
       </c>
     </row>
     <row r="533">
@@ -6232,7 +6232,7 @@
         <v>531</v>
       </c>
       <c r="C533" t="n">
-        <v>9713</v>
+        <v>9872</v>
       </c>
     </row>
     <row r="534">
@@ -6243,7 +6243,7 @@
         <v>532</v>
       </c>
       <c r="C534" t="n">
-        <v>9604</v>
+        <v>9837</v>
       </c>
     </row>
     <row r="535">
@@ -6254,7 +6254,7 @@
         <v>533</v>
       </c>
       <c r="C535" t="n">
-        <v>9957</v>
+        <v>10694</v>
       </c>
     </row>
     <row r="536">
@@ -6265,7 +6265,7 @@
         <v>534</v>
       </c>
       <c r="C536" t="n">
-        <v>9957</v>
+        <v>10694</v>
       </c>
     </row>
     <row r="537">
@@ -6276,7 +6276,7 @@
         <v>535</v>
       </c>
       <c r="C537" t="n">
-        <v>9075</v>
+        <v>10694</v>
       </c>
     </row>
     <row r="538">
@@ -6287,7 +6287,7 @@
         <v>536</v>
       </c>
       <c r="C538" t="n">
-        <v>9867</v>
+        <v>10298</v>
       </c>
     </row>
     <row r="539">
@@ -6298,7 +6298,7 @@
         <v>537</v>
       </c>
       <c r="C539" t="n">
-        <v>9178</v>
+        <v>10298</v>
       </c>
     </row>
     <row r="540">
@@ -6309,7 +6309,7 @@
         <v>538</v>
       </c>
       <c r="C540" t="n">
-        <v>9672</v>
+        <v>8666</v>
       </c>
     </row>
     <row r="541">
@@ -6320,7 +6320,7 @@
         <v>539</v>
       </c>
       <c r="C541" t="n">
-        <v>9075</v>
+        <v>10473</v>
       </c>
     </row>
     <row r="542">
@@ -6331,7 +6331,7 @@
         <v>540</v>
       </c>
       <c r="C542" t="n">
-        <v>8972</v>
+        <v>10016</v>
       </c>
     </row>
     <row r="543">
@@ -6342,7 +6342,7 @@
         <v>541</v>
       </c>
       <c r="C543" t="n">
-        <v>8972</v>
+        <v>9851</v>
       </c>
     </row>
     <row r="544">
@@ -6353,7 +6353,7 @@
         <v>542</v>
       </c>
       <c r="C544" t="n">
-        <v>8599</v>
+        <v>9162</v>
       </c>
     </row>
     <row r="545">
@@ -6364,7 +6364,7 @@
         <v>543</v>
       </c>
       <c r="C545" t="n">
-        <v>8987</v>
+        <v>10338</v>
       </c>
     </row>
     <row r="546">
@@ -6375,7 +6375,7 @@
         <v>544</v>
       </c>
       <c r="C546" t="n">
-        <v>9107</v>
+        <v>10338</v>
       </c>
     </row>
     <row r="547">
@@ -6386,7 +6386,7 @@
         <v>545</v>
       </c>
       <c r="C547" t="n">
-        <v>9161</v>
+        <v>10338</v>
       </c>
     </row>
     <row r="548">
@@ -6397,7 +6397,7 @@
         <v>546</v>
       </c>
       <c r="C548" t="n">
-        <v>9178</v>
+        <v>9739</v>
       </c>
     </row>
     <row r="549">
@@ -6408,7 +6408,7 @@
         <v>547</v>
       </c>
       <c r="C549" t="n">
-        <v>9231</v>
+        <v>9524</v>
       </c>
     </row>
     <row r="550">
@@ -6419,7 +6419,7 @@
         <v>548</v>
       </c>
       <c r="C550" t="n">
-        <v>8832</v>
+        <v>9739</v>
       </c>
     </row>
     <row r="551">
@@ -6430,7 +6430,7 @@
         <v>549</v>
       </c>
       <c r="C551" t="n">
-        <v>8725</v>
+        <v>9799</v>
       </c>
     </row>
     <row r="552">
@@ -6441,7 +6441,7 @@
         <v>550</v>
       </c>
       <c r="C552" t="n">
-        <v>8465</v>
+        <v>9799</v>
       </c>
     </row>
     <row r="553">
@@ -6452,7 +6452,7 @@
         <v>551</v>
       </c>
       <c r="C553" t="n">
-        <v>8897</v>
+        <v>9808</v>
       </c>
     </row>
     <row r="554">
@@ -6463,7 +6463,7 @@
         <v>552</v>
       </c>
       <c r="C554" t="n">
-        <v>8777</v>
+        <v>9237</v>
       </c>
     </row>
     <row r="555">
@@ -6474,7 +6474,7 @@
         <v>553</v>
       </c>
       <c r="C555" t="n">
-        <v>8814</v>
+        <v>9237</v>
       </c>
     </row>
     <row r="556">
@@ -6485,7 +6485,7 @@
         <v>554</v>
       </c>
       <c r="C556" t="n">
-        <v>8150</v>
+        <v>9306</v>
       </c>
     </row>
     <row r="557">
@@ -6496,7 +6496,7 @@
         <v>555</v>
       </c>
       <c r="C557" t="n">
-        <v>8777</v>
+        <v>9306</v>
       </c>
     </row>
     <row r="558">
@@ -6507,7 +6507,7 @@
         <v>556</v>
       </c>
       <c r="C558" t="n">
-        <v>8992</v>
+        <v>9306</v>
       </c>
     </row>
     <row r="559">
@@ -6518,7 +6518,7 @@
         <v>557</v>
       </c>
       <c r="C559" t="n">
-        <v>8867</v>
+        <v>9237</v>
       </c>
     </row>
     <row r="560">
@@ -6529,7 +6529,7 @@
         <v>558</v>
       </c>
       <c r="C560" t="n">
-        <v>9071</v>
+        <v>9237</v>
       </c>
     </row>
     <row r="561">
@@ -6540,7 +6540,7 @@
         <v>559</v>
       </c>
       <c r="C561" t="n">
-        <v>9071</v>
+        <v>9237</v>
       </c>
     </row>
     <row r="562">
@@ -6551,7 +6551,7 @@
         <v>560</v>
       </c>
       <c r="C562" t="n">
-        <v>9071</v>
+        <v>9306</v>
       </c>
     </row>
     <row r="563">
@@ -6562,7 +6562,7 @@
         <v>561</v>
       </c>
       <c r="C563" t="n">
-        <v>9418</v>
+        <v>9306</v>
       </c>
     </row>
     <row r="564">
@@ -6573,7 +6573,7 @@
         <v>562</v>
       </c>
       <c r="C564" t="n">
-        <v>10203</v>
+        <v>9306</v>
       </c>
     </row>
     <row r="565">
@@ -6584,7 +6584,7 @@
         <v>563</v>
       </c>
       <c r="C565" t="n">
-        <v>10117</v>
+        <v>8759</v>
       </c>
     </row>
     <row r="566">
@@ -6595,7 +6595,7 @@
         <v>564</v>
       </c>
       <c r="C566" t="n">
-        <v>10125</v>
+        <v>8759</v>
       </c>
     </row>
     <row r="567">
@@ -6606,7 +6606,7 @@
         <v>565</v>
       </c>
       <c r="C567" t="n">
-        <v>9826</v>
+        <v>8759</v>
       </c>
     </row>
     <row r="568">
@@ -6617,7 +6617,7 @@
         <v>566</v>
       </c>
       <c r="C568" t="n">
-        <v>11047</v>
+        <v>8759</v>
       </c>
     </row>
     <row r="569">
@@ -6628,7 +6628,7 @@
         <v>567</v>
       </c>
       <c r="C569" t="n">
-        <v>11108</v>
+        <v>9434</v>
       </c>
     </row>
     <row r="570">
@@ -6639,7 +6639,7 @@
         <v>568</v>
       </c>
       <c r="C570" t="n">
-        <v>11108</v>
+        <v>9520</v>
       </c>
     </row>
     <row r="571">
@@ -6650,7 +6650,7 @@
         <v>569</v>
       </c>
       <c r="C571" t="n">
-        <v>11784</v>
+        <v>9520</v>
       </c>
     </row>
     <row r="572">
@@ -6661,7 +6661,7 @@
         <v>570</v>
       </c>
       <c r="C572" t="n">
-        <v>11259</v>
+        <v>9520</v>
       </c>
     </row>
     <row r="573">
@@ -6672,7 +6672,7 @@
         <v>571</v>
       </c>
       <c r="C573" t="n">
-        <v>11739</v>
+        <v>9551</v>
       </c>
     </row>
     <row r="574">
@@ -6683,7 +6683,7 @@
         <v>572</v>
       </c>
       <c r="C574" t="n">
-        <v>10793</v>
+        <v>9551</v>
       </c>
     </row>
     <row r="575">
@@ -6694,7 +6694,7 @@
         <v>573</v>
       </c>
       <c r="C575" t="n">
-        <v>10827</v>
+        <v>9551</v>
       </c>
     </row>
     <row r="576">
@@ -6705,7 +6705,7 @@
         <v>574</v>
       </c>
       <c r="C576" t="n">
-        <v>10827</v>
+        <v>9551</v>
       </c>
     </row>
     <row r="577">
@@ -6716,7 +6716,7 @@
         <v>575</v>
       </c>
       <c r="C577" t="n">
-        <v>10827</v>
+        <v>9551</v>
       </c>
     </row>
     <row r="578">
@@ -6727,7 +6727,7 @@
         <v>576</v>
       </c>
       <c r="C578" t="n">
-        <v>10827</v>
+        <v>9485</v>
       </c>
     </row>
     <row r="579">
@@ -6738,7 +6738,7 @@
         <v>577</v>
       </c>
       <c r="C579" t="n">
-        <v>10827</v>
+        <v>9449</v>
       </c>
     </row>
     <row r="580">
@@ -6749,7 +6749,7 @@
         <v>578</v>
       </c>
       <c r="C580" t="n">
-        <v>10827</v>
+        <v>9538</v>
       </c>
     </row>
     <row r="581">
@@ -6760,7 +6760,7 @@
         <v>579</v>
       </c>
       <c r="C581" t="n">
-        <v>10550</v>
+        <v>9355</v>
       </c>
     </row>
     <row r="582">
@@ -6771,7 +6771,7 @@
         <v>580</v>
       </c>
       <c r="C582" t="n">
-        <v>10024</v>
+        <v>9331</v>
       </c>
     </row>
     <row r="583">
@@ -6782,7 +6782,7 @@
         <v>581</v>
       </c>
       <c r="C583" t="n">
-        <v>10024</v>
+        <v>9331</v>
       </c>
     </row>
     <row r="584">
@@ -6793,7 +6793,7 @@
         <v>582</v>
       </c>
       <c r="C584" t="n">
-        <v>10721</v>
+        <v>9004</v>
       </c>
     </row>
     <row r="585">
@@ -6804,7 +6804,7 @@
         <v>583</v>
       </c>
       <c r="C585" t="n">
-        <v>11194</v>
+        <v>9331</v>
       </c>
     </row>
     <row r="586">
@@ -6815,7 +6815,7 @@
         <v>584</v>
       </c>
       <c r="C586" t="n">
-        <v>11199</v>
+        <v>9081</v>
       </c>
     </row>
     <row r="587">
@@ -6826,7 +6826,7 @@
         <v>585</v>
       </c>
       <c r="C587" t="n">
-        <v>11384</v>
+        <v>9081</v>
       </c>
     </row>
     <row r="588">
@@ -6837,7 +6837,7 @@
         <v>586</v>
       </c>
       <c r="C588" t="n">
-        <v>10514</v>
+        <v>9081</v>
       </c>
     </row>
     <row r="589">
@@ -6848,7 +6848,7 @@
         <v>587</v>
       </c>
       <c r="C589" t="n">
-        <v>10523</v>
+        <v>9081</v>
       </c>
     </row>
     <row r="590">
@@ -6859,7 +6859,7 @@
         <v>588</v>
       </c>
       <c r="C590" t="n">
-        <v>10122</v>
+        <v>9081</v>
       </c>
     </row>
     <row r="591">
@@ -6870,7 +6870,7 @@
         <v>589</v>
       </c>
       <c r="C591" t="n">
-        <v>10161</v>
+        <v>9081</v>
       </c>
     </row>
     <row r="592">
@@ -6881,7 +6881,7 @@
         <v>590</v>
       </c>
       <c r="C592" t="n">
-        <v>9679</v>
+        <v>9081</v>
       </c>
     </row>
     <row r="593">
@@ -6892,7 +6892,7 @@
         <v>591</v>
       </c>
       <c r="C593" t="n">
-        <v>9234</v>
+        <v>9081</v>
       </c>
     </row>
     <row r="594">
@@ -6903,7 +6903,7 @@
         <v>592</v>
       </c>
       <c r="C594" t="n">
-        <v>10185</v>
+        <v>9081</v>
       </c>
     </row>
     <row r="595">
@@ -6914,7 +6914,7 @@
         <v>593</v>
       </c>
       <c r="C595" t="n">
-        <v>10121</v>
+        <v>9503</v>
       </c>
     </row>
     <row r="596">
@@ -6925,7 +6925,7 @@
         <v>594</v>
       </c>
       <c r="C596" t="n">
-        <v>9186</v>
+        <v>9503</v>
       </c>
     </row>
     <row r="597">
@@ -6936,7 +6936,7 @@
         <v>595</v>
       </c>
       <c r="C597" t="n">
-        <v>9386</v>
+        <v>9503</v>
       </c>
     </row>
     <row r="598">
@@ -6947,7 +6947,7 @@
         <v>596</v>
       </c>
       <c r="C598" t="n">
-        <v>9186</v>
+        <v>9503</v>
       </c>
     </row>
     <row r="599">
@@ -6958,7 +6958,7 @@
         <v>597</v>
       </c>
       <c r="C599" t="n">
-        <v>9848</v>
+        <v>9081</v>
       </c>
     </row>
     <row r="600">
@@ -6969,7 +6969,7 @@
         <v>598</v>
       </c>
       <c r="C600" t="n">
-        <v>10071</v>
+        <v>9503</v>
       </c>
     </row>
     <row r="601">
@@ -6980,7 +6980,7 @@
         <v>599</v>
       </c>
       <c r="C601" t="n">
-        <v>10128</v>
+        <v>9503</v>
       </c>
     </row>
     <row r="602">
@@ -6991,7 +6991,7 @@
         <v>600</v>
       </c>
       <c r="C602" t="n">
-        <v>10396</v>
+        <v>8939</v>
       </c>
     </row>
     <row r="603">
@@ -7002,7 +7002,7 @@
         <v>601</v>
       </c>
       <c r="C603" t="n">
-        <v>9761</v>
+        <v>9176</v>
       </c>
     </row>
     <row r="604">
@@ -7013,7 +7013,7 @@
         <v>602</v>
       </c>
       <c r="C604" t="n">
-        <v>9637</v>
+        <v>9176</v>
       </c>
     </row>
     <row r="605">
@@ -7024,7 +7024,7 @@
         <v>603</v>
       </c>
       <c r="C605" t="n">
-        <v>9637</v>
+        <v>9412</v>
       </c>
     </row>
     <row r="606">
@@ -7046,7 +7046,7 @@
         <v>605</v>
       </c>
       <c r="C607" t="n">
-        <v>9579</v>
+        <v>9839</v>
       </c>
     </row>
     <row r="608">
@@ -7057,7 +7057,7 @@
         <v>606</v>
       </c>
       <c r="C608" t="n">
-        <v>9262</v>
+        <v>9601</v>
       </c>
     </row>
     <row r="609">
@@ -7068,7 +7068,7 @@
         <v>607</v>
       </c>
       <c r="C609" t="n">
-        <v>9262</v>
+        <v>9179</v>
       </c>
     </row>
     <row r="610">
@@ -7079,7 +7079,7 @@
         <v>608</v>
       </c>
       <c r="C610" t="n">
-        <v>9262</v>
+        <v>9440</v>
       </c>
     </row>
     <row r="611">
@@ -7090,7 +7090,7 @@
         <v>609</v>
       </c>
       <c r="C611" t="n">
-        <v>9399</v>
+        <v>9272</v>
       </c>
     </row>
     <row r="612">
@@ -7101,7 +7101,7 @@
         <v>610</v>
       </c>
       <c r="C612" t="n">
-        <v>9665</v>
+        <v>9758</v>
       </c>
     </row>
     <row r="613">
@@ -7112,7 +7112,7 @@
         <v>611</v>
       </c>
       <c r="C613" t="n">
-        <v>9379</v>
+        <v>9679</v>
       </c>
     </row>
     <row r="614">
@@ -7123,7 +7123,7 @@
         <v>612</v>
       </c>
       <c r="C614" t="n">
-        <v>9379</v>
+        <v>9297</v>
       </c>
     </row>
     <row r="615">
@@ -7134,7 +7134,7 @@
         <v>613</v>
       </c>
       <c r="C615" t="n">
-        <v>9419</v>
+        <v>9531</v>
       </c>
     </row>
     <row r="616">
@@ -7145,7 +7145,7 @@
         <v>614</v>
       </c>
       <c r="C616" t="n">
-        <v>9277</v>
+        <v>9230</v>
       </c>
     </row>
     <row r="617">
@@ -7156,7 +7156,7 @@
         <v>615</v>
       </c>
       <c r="C617" t="n">
-        <v>8991</v>
+        <v>9230</v>
       </c>
     </row>
     <row r="618">
@@ -7167,7 +7167,7 @@
         <v>616</v>
       </c>
       <c r="C618" t="n">
-        <v>8944</v>
+        <v>9230</v>
       </c>
     </row>
     <row r="619">
@@ -7178,7 +7178,7 @@
         <v>617</v>
       </c>
       <c r="C619" t="n">
-        <v>8802</v>
+        <v>9230</v>
       </c>
     </row>
     <row r="620">
@@ -7189,7 +7189,7 @@
         <v>618</v>
       </c>
       <c r="C620" t="n">
-        <v>9114</v>
+        <v>9230</v>
       </c>
     </row>
     <row r="621">
@@ -7200,7 +7200,7 @@
         <v>619</v>
       </c>
       <c r="C621" t="n">
-        <v>9114</v>
+        <v>9298</v>
       </c>
     </row>
     <row r="622">
@@ -7211,7 +7211,7 @@
         <v>620</v>
       </c>
       <c r="C622" t="n">
-        <v>9156</v>
+        <v>9298</v>
       </c>
     </row>
     <row r="623">
@@ -7222,7 +7222,7 @@
         <v>621</v>
       </c>
       <c r="C623" t="n">
-        <v>8180</v>
+        <v>9298</v>
       </c>
     </row>
     <row r="624">
@@ -7233,7 +7233,7 @@
         <v>622</v>
       </c>
       <c r="C624" t="n">
-        <v>8180</v>
+        <v>9533</v>
       </c>
     </row>
     <row r="625">
@@ -7244,7 +7244,7 @@
         <v>623</v>
       </c>
       <c r="C625" t="n">
-        <v>8614</v>
+        <v>8818</v>
       </c>
     </row>
     <row r="626">
@@ -7255,7 +7255,7 @@
         <v>624</v>
       </c>
       <c r="C626" t="n">
-        <v>8614</v>
+        <v>8818</v>
       </c>
     </row>
     <row r="627">
@@ -7266,7 +7266,7 @@
         <v>625</v>
       </c>
       <c r="C627" t="n">
-        <v>8614</v>
+        <v>8541</v>
       </c>
     </row>
     <row r="628">
@@ -7277,7 +7277,7 @@
         <v>626</v>
       </c>
       <c r="C628" t="n">
-        <v>8614</v>
+        <v>9511</v>
       </c>
     </row>
     <row r="629">
@@ -7288,7 +7288,7 @@
         <v>627</v>
       </c>
       <c r="C629" t="n">
-        <v>8614</v>
+        <v>9128</v>
       </c>
     </row>
     <row r="630">
@@ -7299,7 +7299,7 @@
         <v>628</v>
       </c>
       <c r="C630" t="n">
-        <v>8279</v>
+        <v>10570</v>
       </c>
     </row>
     <row r="631">
@@ -7310,7 +7310,7 @@
         <v>629</v>
       </c>
       <c r="C631" t="n">
-        <v>8614</v>
+        <v>9868</v>
       </c>
     </row>
     <row r="632">
@@ -7321,7 +7321,7 @@
         <v>630</v>
       </c>
       <c r="C632" t="n">
-        <v>8892</v>
+        <v>9868</v>
       </c>
     </row>
     <row r="633">
@@ -7332,7 +7332,7 @@
         <v>631</v>
       </c>
       <c r="C633" t="n">
-        <v>8217</v>
+        <v>9526</v>
       </c>
     </row>
     <row r="634">
@@ -7343,7 +7343,7 @@
         <v>632</v>
       </c>
       <c r="C634" t="n">
-        <v>8493</v>
+        <v>10108</v>
       </c>
     </row>
     <row r="635">
@@ -7354,7 +7354,7 @@
         <v>633</v>
       </c>
       <c r="C635" t="n">
-        <v>8571</v>
+        <v>9017</v>
       </c>
     </row>
     <row r="636">
@@ -7365,7 +7365,7 @@
         <v>634</v>
       </c>
       <c r="C636" t="n">
-        <v>8687</v>
+        <v>9509</v>
       </c>
     </row>
     <row r="637">
@@ -7376,7 +7376,7 @@
         <v>635</v>
       </c>
       <c r="C637" t="n">
-        <v>9084</v>
+        <v>10108</v>
       </c>
     </row>
     <row r="638">
@@ -7387,7 +7387,7 @@
         <v>636</v>
       </c>
       <c r="C638" t="n">
-        <v>9084</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="639">
@@ -7398,7 +7398,7 @@
         <v>637</v>
       </c>
       <c r="C639" t="n">
-        <v>9732</v>
+        <v>9917</v>
       </c>
     </row>
     <row r="640">
@@ -7409,7 +7409,7 @@
         <v>638</v>
       </c>
       <c r="C640" t="n">
-        <v>9159</v>
+        <v>10239</v>
       </c>
     </row>
     <row r="641">
@@ -7420,7 +7420,7 @@
         <v>639</v>
       </c>
       <c r="C641" t="n">
-        <v>9159</v>
+        <v>9996</v>
       </c>
     </row>
     <row r="642">
@@ -7431,7 +7431,7 @@
         <v>640</v>
       </c>
       <c r="C642" t="n">
-        <v>8614</v>
+        <v>9996</v>
       </c>
     </row>
     <row r="643">
@@ -7442,7 +7442,7 @@
         <v>641</v>
       </c>
       <c r="C643" t="n">
-        <v>8614</v>
+        <v>9996</v>
       </c>
     </row>
     <row r="644">
@@ -7453,7 +7453,7 @@
         <v>642</v>
       </c>
       <c r="C644" t="n">
-        <v>8781</v>
+        <v>9501</v>
       </c>
     </row>
     <row r="645">
@@ -7464,7 +7464,7 @@
         <v>643</v>
       </c>
       <c r="C645" t="n">
-        <v>9084</v>
+        <v>9501</v>
       </c>
     </row>
     <row r="646">
@@ -7475,7 +7475,7 @@
         <v>644</v>
       </c>
       <c r="C646" t="n">
-        <v>8892</v>
+        <v>9501</v>
       </c>
     </row>
     <row r="647">
@@ -7486,7 +7486,7 @@
         <v>645</v>
       </c>
       <c r="C647" t="n">
-        <v>8892</v>
+        <v>9444</v>
       </c>
     </row>
     <row r="648">
@@ -7497,7 +7497,7 @@
         <v>646</v>
       </c>
       <c r="C648" t="n">
-        <v>8929</v>
+        <v>9501</v>
       </c>
     </row>
     <row r="649">
@@ -7508,7 +7508,7 @@
         <v>647</v>
       </c>
       <c r="C649" t="n">
-        <v>9072</v>
+        <v>9563</v>
       </c>
     </row>
     <row r="650">
@@ -7519,7 +7519,7 @@
         <v>648</v>
       </c>
       <c r="C650" t="n">
-        <v>9366</v>
+        <v>9871</v>
       </c>
     </row>
     <row r="651">
@@ -7530,7 +7530,7 @@
         <v>649</v>
       </c>
       <c r="C651" t="n">
-        <v>9513</v>
+        <v>9871</v>
       </c>
     </row>
     <row r="652">
@@ -7541,7 +7541,7 @@
         <v>650</v>
       </c>
       <c r="C652" t="n">
-        <v>9438</v>
+        <v>9852</v>
       </c>
     </row>
     <row r="653">
@@ -7552,7 +7552,7 @@
         <v>651</v>
       </c>
       <c r="C653" t="n">
-        <v>8589</v>
+        <v>10053</v>
       </c>
     </row>
     <row r="654">
@@ -7563,7 +7563,7 @@
         <v>652</v>
       </c>
       <c r="C654" t="n">
-        <v>8589</v>
+        <v>9935</v>
       </c>
     </row>
     <row r="655">
@@ -7574,7 +7574,7 @@
         <v>653</v>
       </c>
       <c r="C655" t="n">
-        <v>8456</v>
+        <v>9935</v>
       </c>
     </row>
     <row r="656">
@@ -7585,7 +7585,7 @@
         <v>654</v>
       </c>
       <c r="C656" t="n">
-        <v>8614</v>
+        <v>9614</v>
       </c>
     </row>
     <row r="657">
@@ -7596,7 +7596,7 @@
         <v>655</v>
       </c>
       <c r="C657" t="n">
-        <v>8884</v>
+        <v>9290</v>
       </c>
     </row>
     <row r="658">
@@ -7607,7 +7607,7 @@
         <v>656</v>
       </c>
       <c r="C658" t="n">
-        <v>8801</v>
+        <v>9290</v>
       </c>
     </row>
     <row r="659">
@@ -7618,7 +7618,7 @@
         <v>657</v>
       </c>
       <c r="C659" t="n">
-        <v>8959</v>
+        <v>9290</v>
       </c>
     </row>
     <row r="660">
@@ -7629,7 +7629,7 @@
         <v>658</v>
       </c>
       <c r="C660" t="n">
-        <v>8934</v>
+        <v>9109</v>
       </c>
     </row>
     <row r="661">
@@ -7640,7 +7640,7 @@
         <v>659</v>
       </c>
       <c r="C661" t="n">
-        <v>8780</v>
+        <v>8959</v>
       </c>
     </row>
     <row r="662">
@@ -7651,7 +7651,7 @@
         <v>660</v>
       </c>
       <c r="C662" t="n">
-        <v>8764</v>
+        <v>9082</v>
       </c>
     </row>
     <row r="663">
@@ -7662,7 +7662,7 @@
         <v>661</v>
       </c>
       <c r="C663" t="n">
-        <v>8926</v>
+        <v>9082</v>
       </c>
     </row>
     <row r="664">
@@ -7673,7 +7673,7 @@
         <v>662</v>
       </c>
       <c r="C664" t="n">
-        <v>8756</v>
+        <v>8367</v>
       </c>
     </row>
     <row r="665">
@@ -7684,7 +7684,7 @@
         <v>663</v>
       </c>
       <c r="C665" t="n">
-        <v>8567</v>
+        <v>8334</v>
       </c>
     </row>
     <row r="666">
@@ -7695,7 +7695,7 @@
         <v>664</v>
       </c>
       <c r="C666" t="n">
-        <v>8542</v>
+        <v>8367</v>
       </c>
     </row>
     <row r="667">
@@ -7706,7 +7706,7 @@
         <v>665</v>
       </c>
       <c r="C667" t="n">
-        <v>8266</v>
+        <v>9643</v>
       </c>
     </row>
     <row r="668">
@@ -7717,7 +7717,7 @@
         <v>666</v>
       </c>
       <c r="C668" t="n">
-        <v>8300</v>
+        <v>9558</v>
       </c>
     </row>
     <row r="669">
@@ -7728,7 +7728,7 @@
         <v>667</v>
       </c>
       <c r="C669" t="n">
-        <v>8936</v>
+        <v>9558</v>
       </c>
     </row>
     <row r="670">
@@ -7739,7 +7739,7 @@
         <v>668</v>
       </c>
       <c r="C670" t="n">
-        <v>9972</v>
+        <v>9558</v>
       </c>
     </row>
     <row r="671">
@@ -7750,7 +7750,7 @@
         <v>669</v>
       </c>
       <c r="C671" t="n">
-        <v>8625</v>
+        <v>9587</v>
       </c>
     </row>
     <row r="672">
@@ -7761,7 +7761,7 @@
         <v>670</v>
       </c>
       <c r="C672" t="n">
-        <v>10925</v>
+        <v>10091</v>
       </c>
     </row>
     <row r="673">
@@ -7772,7 +7772,7 @@
         <v>671</v>
       </c>
       <c r="C673" t="n">
-        <v>9908</v>
+        <v>10317</v>
       </c>
     </row>
     <row r="674">
@@ -7783,7 +7783,7 @@
         <v>672</v>
       </c>
       <c r="C674" t="n">
-        <v>10415</v>
+        <v>10226</v>
       </c>
     </row>
     <row r="675">
@@ -7794,7 +7794,7 @@
         <v>673</v>
       </c>
       <c r="C675" t="n">
-        <v>10356</v>
+        <v>10226</v>
       </c>
     </row>
     <row r="676">
@@ -7805,7 +7805,7 @@
         <v>674</v>
       </c>
       <c r="C676" t="n">
-        <v>10248</v>
+        <v>10226</v>
       </c>
     </row>
     <row r="677">
@@ -7816,7 +7816,7 @@
         <v>675</v>
       </c>
       <c r="C677" t="n">
-        <v>10854</v>
+        <v>9763</v>
       </c>
     </row>
     <row r="678">
@@ -7827,7 +7827,7 @@
         <v>676</v>
       </c>
       <c r="C678" t="n">
-        <v>10854</v>
+        <v>9358</v>
       </c>
     </row>
     <row r="679">
@@ -7838,7 +7838,7 @@
         <v>677</v>
       </c>
       <c r="C679" t="n">
-        <v>11199</v>
+        <v>9520</v>
       </c>
     </row>
     <row r="680">
@@ -7849,7 +7849,7 @@
         <v>678</v>
       </c>
       <c r="C680" t="n">
-        <v>9544</v>
+        <v>9520</v>
       </c>
     </row>
     <row r="681">
@@ -7860,7 +7860,7 @@
         <v>679</v>
       </c>
       <c r="C681" t="n">
-        <v>9816</v>
+        <v>9520</v>
       </c>
     </row>
     <row r="682">
@@ -7871,7 +7871,7 @@
         <v>680</v>
       </c>
       <c r="C682" t="n">
-        <v>10233</v>
+        <v>9459</v>
       </c>
     </row>
     <row r="683">
@@ -7882,7 +7882,7 @@
         <v>681</v>
       </c>
       <c r="C683" t="n">
-        <v>10729</v>
+        <v>9459</v>
       </c>
     </row>
     <row r="684">
@@ -7893,7 +7893,7 @@
         <v>682</v>
       </c>
       <c r="C684" t="n">
-        <v>10200</v>
+        <v>8579</v>
       </c>
     </row>
     <row r="685">
@@ -7904,7 +7904,7 @@
         <v>683</v>
       </c>
       <c r="C685" t="n">
-        <v>10956</v>
+        <v>7978</v>
       </c>
     </row>
     <row r="686">
@@ -7915,7 +7915,7 @@
         <v>684</v>
       </c>
       <c r="C686" t="n">
-        <v>10160</v>
+        <v>7978</v>
       </c>
     </row>
     <row r="687">
@@ -7926,7 +7926,7 @@
         <v>685</v>
       </c>
       <c r="C687" t="n">
-        <v>10160</v>
+        <v>7978</v>
       </c>
     </row>
     <row r="688">
@@ -7937,7 +7937,7 @@
         <v>686</v>
       </c>
       <c r="C688" t="n">
-        <v>10214</v>
+        <v>7978</v>
       </c>
     </row>
     <row r="689">
@@ -7948,7 +7948,7 @@
         <v>687</v>
       </c>
       <c r="C689" t="n">
-        <v>10126</v>
+        <v>7978</v>
       </c>
     </row>
     <row r="690">
@@ -7959,7 +7959,7 @@
         <v>688</v>
       </c>
       <c r="C690" t="n">
-        <v>10735</v>
+        <v>7978</v>
       </c>
     </row>
     <row r="691">
@@ -7970,7 +7970,7 @@
         <v>689</v>
       </c>
       <c r="C691" t="n">
-        <v>10261</v>
+        <v>8276</v>
       </c>
     </row>
     <row r="692">
@@ -7981,7 +7981,7 @@
         <v>690</v>
       </c>
       <c r="C692" t="n">
-        <v>10063</v>
+        <v>8723</v>
       </c>
     </row>
     <row r="693">
@@ -7992,7 +7992,7 @@
         <v>691</v>
       </c>
       <c r="C693" t="n">
-        <v>10063</v>
+        <v>8723</v>
       </c>
     </row>
     <row r="694">
@@ -8003,7 +8003,7 @@
         <v>692</v>
       </c>
       <c r="C694" t="n">
-        <v>10317</v>
+        <v>9568</v>
       </c>
     </row>
     <row r="695">
@@ -8014,7 +8014,7 @@
         <v>693</v>
       </c>
       <c r="C695" t="n">
-        <v>11116</v>
+        <v>9544</v>
       </c>
     </row>
     <row r="696">
@@ -8025,7 +8025,7 @@
         <v>694</v>
       </c>
       <c r="C696" t="n">
-        <v>11116</v>
+        <v>8827</v>
       </c>
     </row>
     <row r="697">
@@ -8036,7 +8036,7 @@
         <v>695</v>
       </c>
       <c r="C697" t="n">
-        <v>10516</v>
+        <v>8794</v>
       </c>
     </row>
     <row r="698">
@@ -8047,7 +8047,7 @@
         <v>696</v>
       </c>
       <c r="C698" t="n">
-        <v>9795</v>
+        <v>8794</v>
       </c>
     </row>
     <row r="699">
@@ -8058,7 +8058,7 @@
         <v>697</v>
       </c>
       <c r="C699" t="n">
-        <v>10241</v>
+        <v>8827</v>
       </c>
     </row>
     <row r="700">
@@ -8069,7 +8069,7 @@
         <v>698</v>
       </c>
       <c r="C700" t="n">
-        <v>9648</v>
+        <v>8827</v>
       </c>
     </row>
     <row r="701">
@@ -8080,7 +8080,7 @@
         <v>699</v>
       </c>
       <c r="C701" t="n">
-        <v>8885</v>
+        <v>8827</v>
       </c>
     </row>
     <row r="702">
@@ -8091,7 +8091,7 @@
         <v>700</v>
       </c>
       <c r="C702" t="n">
-        <v>9918</v>
+        <v>9253</v>
       </c>
     </row>
     <row r="703">
@@ -8102,7 +8102,7 @@
         <v>701</v>
       </c>
       <c r="C703" t="n">
-        <v>10566</v>
+        <v>9338</v>
       </c>
     </row>
     <row r="704">
@@ -8113,7 +8113,7 @@
         <v>702</v>
       </c>
       <c r="C704" t="n">
-        <v>10022</v>
+        <v>9232</v>
       </c>
     </row>
     <row r="705">
@@ -8124,7 +8124,7 @@
         <v>703</v>
       </c>
       <c r="C705" t="n">
-        <v>10022</v>
+        <v>9232</v>
       </c>
     </row>
     <row r="706">
@@ -8135,7 +8135,7 @@
         <v>704</v>
       </c>
       <c r="C706" t="n">
-        <v>10022</v>
+        <v>9338</v>
       </c>
     </row>
     <row r="707">
@@ -8146,7 +8146,7 @@
         <v>705</v>
       </c>
       <c r="C707" t="n">
-        <v>10022</v>
+        <v>9280</v>
       </c>
     </row>
     <row r="708">
@@ -8157,7 +8157,7 @@
         <v>706</v>
       </c>
       <c r="C708" t="n">
-        <v>10389</v>
+        <v>9280</v>
       </c>
     </row>
     <row r="709">
@@ -8168,7 +8168,7 @@
         <v>707</v>
       </c>
       <c r="C709" t="n">
-        <v>10022</v>
+        <v>9280</v>
       </c>
     </row>
     <row r="710">
@@ -8179,7 +8179,7 @@
         <v>708</v>
       </c>
       <c r="C710" t="n">
-        <v>10110</v>
+        <v>9337</v>
       </c>
     </row>
     <row r="711">
@@ -8190,7 +8190,7 @@
         <v>709</v>
       </c>
       <c r="C711" t="n">
-        <v>10110</v>
+        <v>8560</v>
       </c>
     </row>
     <row r="712">
@@ -8201,7 +8201,7 @@
         <v>710</v>
       </c>
       <c r="C712" t="n">
-        <v>9450</v>
+        <v>8560</v>
       </c>
     </row>
     <row r="713">
@@ -8212,7 +8212,7 @@
         <v>711</v>
       </c>
       <c r="C713" t="n">
-        <v>9450</v>
+        <v>8354</v>
       </c>
     </row>
     <row r="714">
@@ -8223,7 +8223,7 @@
         <v>712</v>
       </c>
       <c r="C714" t="n">
-        <v>8604</v>
+        <v>8354</v>
       </c>
     </row>
     <row r="715">
@@ -8234,7 +8234,7 @@
         <v>713</v>
       </c>
       <c r="C715" t="n">
-        <v>8577</v>
+        <v>8354</v>
       </c>
     </row>
     <row r="716">
@@ -8245,7 +8245,7 @@
         <v>714</v>
       </c>
       <c r="C716" t="n">
-        <v>8602</v>
+        <v>9280</v>
       </c>
     </row>
     <row r="717">
@@ -8256,7 +8256,7 @@
         <v>715</v>
       </c>
       <c r="C717" t="n">
-        <v>8602</v>
+        <v>9215</v>
       </c>
     </row>
     <row r="718">
@@ -8267,7 +8267,7 @@
         <v>716</v>
       </c>
       <c r="C718" t="n">
-        <v>8602</v>
+        <v>8796</v>
       </c>
     </row>
     <row r="719">
@@ -8278,7 +8278,7 @@
         <v>717</v>
       </c>
       <c r="C719" t="n">
-        <v>8604</v>
+        <v>9031</v>
       </c>
     </row>
     <row r="720">
@@ -8289,7 +8289,7 @@
         <v>718</v>
       </c>
       <c r="C720" t="n">
-        <v>8604</v>
+        <v>9031</v>
       </c>
     </row>
     <row r="721">
@@ -8300,7 +8300,7 @@
         <v>719</v>
       </c>
       <c r="C721" t="n">
-        <v>8752</v>
+        <v>9721</v>
       </c>
     </row>
     <row r="722">
@@ -8311,7 +8311,7 @@
         <v>720</v>
       </c>
       <c r="C722" t="n">
-        <v>8602</v>
+        <v>9721</v>
       </c>
     </row>
     <row r="723">
@@ -8322,7 +8322,7 @@
         <v>721</v>
       </c>
       <c r="C723" t="n">
-        <v>9383</v>
+        <v>9515</v>
       </c>
     </row>
     <row r="724">
@@ -8333,7 +8333,7 @@
         <v>722</v>
       </c>
       <c r="C724" t="n">
-        <v>9042</v>
+        <v>9721</v>
       </c>
     </row>
     <row r="725">
@@ -8344,7 +8344,7 @@
         <v>723</v>
       </c>
       <c r="C725" t="n">
-        <v>9597</v>
+        <v>9721</v>
       </c>
     </row>
     <row r="726">
@@ -8355,7 +8355,7 @@
         <v>724</v>
       </c>
       <c r="C726" t="n">
-        <v>9597</v>
+        <v>9721</v>
       </c>
     </row>
     <row r="727">
@@ -8366,7 +8366,7 @@
         <v>725</v>
       </c>
       <c r="C727" t="n">
-        <v>9778</v>
+        <v>10640</v>
       </c>
     </row>
     <row r="728">
@@ -8377,7 +8377,7 @@
         <v>726</v>
       </c>
       <c r="C728" t="n">
-        <v>9094</v>
+        <v>10822</v>
       </c>
     </row>
     <row r="729">
@@ -8388,7 +8388,7 @@
         <v>727</v>
       </c>
       <c r="C729" t="n">
-        <v>8955</v>
+        <v>10249</v>
       </c>
     </row>
     <row r="730">
@@ -8399,7 +8399,7 @@
         <v>728</v>
       </c>
       <c r="C730" t="n">
-        <v>8920</v>
+        <v>10249</v>
       </c>
     </row>
     <row r="731">
@@ -8410,7 +8410,7 @@
         <v>729</v>
       </c>
       <c r="C731" t="n">
-        <v>9097</v>
+        <v>10249</v>
       </c>
     </row>
     <row r="732">
@@ -8421,7 +8421,7 @@
         <v>730</v>
       </c>
       <c r="C732" t="n">
-        <v>9086</v>
+        <v>10249</v>
       </c>
     </row>
     <row r="733">
@@ -8432,7 +8432,7 @@
         <v>731</v>
       </c>
       <c r="C733" t="n">
-        <v>8604</v>
+        <v>10249</v>
       </c>
     </row>
     <row r="734">
@@ -8443,7 +8443,7 @@
         <v>732</v>
       </c>
       <c r="C734" t="n">
-        <v>9017</v>
+        <v>10028</v>
       </c>
     </row>
     <row r="735">
@@ -8454,7 +8454,7 @@
         <v>733</v>
       </c>
       <c r="C735" t="n">
-        <v>9254</v>
+        <v>9933</v>
       </c>
     </row>
     <row r="736">
@@ -8465,7 +8465,7 @@
         <v>734</v>
       </c>
       <c r="C736" t="n">
-        <v>9549</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="737">
@@ -8476,7 +8476,7 @@
         <v>735</v>
       </c>
       <c r="C737" t="n">
-        <v>9934</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="738">
@@ -8487,7 +8487,7 @@
         <v>736</v>
       </c>
       <c r="C738" t="n">
-        <v>10042</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="739">
@@ -8498,7 +8498,7 @@
         <v>737</v>
       </c>
       <c r="C739" t="n">
-        <v>9907</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="740">
@@ -8509,7 +8509,7 @@
         <v>738</v>
       </c>
       <c r="C740" t="n">
-        <v>9482</v>
+        <v>9614</v>
       </c>
     </row>
     <row r="741">
@@ -8520,7 +8520,7 @@
         <v>739</v>
       </c>
       <c r="C741" t="n">
-        <v>10069</v>
+        <v>9614</v>
       </c>
     </row>
     <row r="742">
@@ -8531,7 +8531,7 @@
         <v>740</v>
       </c>
       <c r="C742" t="n">
-        <v>10394</v>
+        <v>9779</v>
       </c>
     </row>
     <row r="743">
@@ -8542,7 +8542,7 @@
         <v>741</v>
       </c>
       <c r="C743" t="n">
-        <v>10069</v>
+        <v>9779</v>
       </c>
     </row>
     <row r="744">
@@ -8553,7 +8553,7 @@
         <v>742</v>
       </c>
       <c r="C744" t="n">
-        <v>10949</v>
+        <v>9779</v>
       </c>
     </row>
     <row r="745">
@@ -8564,7 +8564,7 @@
         <v>743</v>
       </c>
       <c r="C745" t="n">
-        <v>11000</v>
+        <v>9332</v>
       </c>
     </row>
     <row r="746">
@@ -8575,7 +8575,7 @@
         <v>744</v>
       </c>
       <c r="C746" t="n">
-        <v>11450</v>
+        <v>9779</v>
       </c>
     </row>
     <row r="747">
@@ -8586,7 +8586,7 @@
         <v>745</v>
       </c>
       <c r="C747" t="n">
-        <v>11315</v>
+        <v>9779</v>
       </c>
     </row>
     <row r="748">
@@ -8597,7 +8597,7 @@
         <v>746</v>
       </c>
       <c r="C748" t="n">
-        <v>11113</v>
+        <v>9412</v>
       </c>
     </row>
     <row r="749">
@@ -8608,7 +8608,7 @@
         <v>747</v>
       </c>
       <c r="C749" t="n">
-        <v>11213</v>
+        <v>9407</v>
       </c>
     </row>
     <row r="750">
@@ -8619,7 +8619,7 @@
         <v>748</v>
       </c>
       <c r="C750" t="n">
-        <v>9997</v>
+        <v>9407</v>
       </c>
     </row>
     <row r="751">
@@ -8630,7 +8630,7 @@
         <v>749</v>
       </c>
       <c r="C751" t="n">
-        <v>11121</v>
+        <v>9314</v>
       </c>
     </row>
     <row r="752">
@@ -8641,7 +8641,7 @@
         <v>750</v>
       </c>
       <c r="C752" t="n">
-        <v>10160</v>
+        <v>9254</v>
       </c>
     </row>
     <row r="753">
@@ -8652,7 +8652,7 @@
         <v>751</v>
       </c>
       <c r="C753" t="n">
-        <v>10160</v>
+        <v>9314</v>
       </c>
     </row>
     <row r="754">
@@ -8663,7 +8663,7 @@
         <v>752</v>
       </c>
       <c r="C754" t="n">
-        <v>10393</v>
+        <v>9314</v>
       </c>
     </row>
     <row r="755">
@@ -8674,7 +8674,7 @@
         <v>753</v>
       </c>
       <c r="C755" t="n">
-        <v>9679</v>
+        <v>9314</v>
       </c>
     </row>
     <row r="756">
@@ -8685,7 +8685,7 @@
         <v>754</v>
       </c>
       <c r="C756" t="n">
-        <v>9359</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="757">
@@ -8696,7 +8696,7 @@
         <v>755</v>
       </c>
       <c r="C757" t="n">
-        <v>10057</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="758">
@@ -8707,7 +8707,7 @@
         <v>756</v>
       </c>
       <c r="C758" t="n">
-        <v>9981</v>
+        <v>8694</v>
       </c>
     </row>
     <row r="759">
@@ -8718,7 +8718,7 @@
         <v>757</v>
       </c>
       <c r="C759" t="n">
-        <v>10570</v>
+        <v>8694</v>
       </c>
     </row>
     <row r="760">
@@ -8729,7 +8729,7 @@
         <v>758</v>
       </c>
       <c r="C760" t="n">
-        <v>10570</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="761">
@@ -8740,7 +8740,7 @@
         <v>759</v>
       </c>
       <c r="C761" t="n">
-        <v>10386</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="762">
@@ -8751,7 +8751,7 @@
         <v>760</v>
       </c>
       <c r="C762" t="n">
-        <v>9814</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="763">
@@ -8762,7 +8762,7 @@
         <v>761</v>
       </c>
       <c r="C763" t="n">
-        <v>10195</v>
+        <v>8207</v>
       </c>
     </row>
     <row r="764">
@@ -8773,7 +8773,7 @@
         <v>762</v>
       </c>
       <c r="C764" t="n">
-        <v>10454</v>
+        <v>8207</v>
       </c>
     </row>
     <row r="765">
@@ -8784,7 +8784,7 @@
         <v>763</v>
       </c>
       <c r="C765" t="n">
-        <v>10090</v>
+        <v>8207</v>
       </c>
     </row>
     <row r="766">
@@ -8795,7 +8795,7 @@
         <v>764</v>
       </c>
       <c r="C766" t="n">
-        <v>9578</v>
+        <v>8675</v>
       </c>
     </row>
     <row r="767">
@@ -8806,7 +8806,7 @@
         <v>765</v>
       </c>
       <c r="C767" t="n">
-        <v>11211</v>
+        <v>8675</v>
       </c>
     </row>
     <row r="768">
@@ -8817,7 +8817,7 @@
         <v>766</v>
       </c>
       <c r="C768" t="n">
-        <v>8992</v>
+        <v>8675</v>
       </c>
     </row>
     <row r="769">
@@ -8828,7 +8828,7 @@
         <v>767</v>
       </c>
       <c r="C769" t="n">
-        <v>10006</v>
+        <v>8675</v>
       </c>
     </row>
     <row r="770">
@@ -8839,7 +8839,7 @@
         <v>768</v>
       </c>
       <c r="C770" t="n">
-        <v>9620</v>
+        <v>8675</v>
       </c>
     </row>
     <row r="771">
@@ -8850,7 +8850,7 @@
         <v>769</v>
       </c>
       <c r="C771" t="n">
-        <v>9620</v>
+        <v>8675</v>
       </c>
     </row>
     <row r="772">
@@ -8861,7 +8861,7 @@
         <v>770</v>
       </c>
       <c r="C772" t="n">
-        <v>11430</v>
+        <v>8249</v>
       </c>
     </row>
     <row r="773">
@@ -8872,7 +8872,7 @@
         <v>771</v>
       </c>
       <c r="C773" t="n">
-        <v>9855</v>
+        <v>8249</v>
       </c>
     </row>
     <row r="774">
@@ -8883,7 +8883,7 @@
         <v>772</v>
       </c>
       <c r="C774" t="n">
-        <v>10912</v>
+        <v>8675</v>
       </c>
     </row>
     <row r="775">
@@ -8894,7 +8894,7 @@
         <v>773</v>
       </c>
       <c r="C775" t="n">
-        <v>10464</v>
+        <v>8675</v>
       </c>
     </row>
     <row r="776">
@@ -8905,7 +8905,7 @@
         <v>774</v>
       </c>
       <c r="C776" t="n">
-        <v>10873</v>
+        <v>9630</v>
       </c>
     </row>
     <row r="777">
@@ -8916,7 +8916,7 @@
         <v>775</v>
       </c>
       <c r="C777" t="n">
-        <v>11002</v>
+        <v>9447</v>
       </c>
     </row>
     <row r="778">
@@ -8927,7 +8927,7 @@
         <v>776</v>
       </c>
       <c r="C778" t="n">
-        <v>11297</v>
+        <v>8825</v>
       </c>
     </row>
     <row r="779">
@@ -8938,7 +8938,7 @@
         <v>777</v>
       </c>
       <c r="C779" t="n">
-        <v>11328</v>
+        <v>8825</v>
       </c>
     </row>
     <row r="780">
@@ -8949,7 +8949,7 @@
         <v>778</v>
       </c>
       <c r="C780" t="n">
-        <v>10916</v>
+        <v>8825</v>
       </c>
     </row>
     <row r="781">
@@ -8960,7 +8960,7 @@
         <v>779</v>
       </c>
       <c r="C781" t="n">
-        <v>10109</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="782">
@@ -8971,7 +8971,7 @@
         <v>780</v>
       </c>
       <c r="C782" t="n">
-        <v>10109</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="783">
@@ -8982,7 +8982,7 @@
         <v>781</v>
       </c>
       <c r="C783" t="n">
-        <v>10109</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="784">
@@ -8993,7 +8993,7 @@
         <v>782</v>
       </c>
       <c r="C784" t="n">
-        <v>10156</v>
+        <v>8747</v>
       </c>
     </row>
     <row r="785">
@@ -9004,7 +9004,7 @@
         <v>783</v>
       </c>
       <c r="C785" t="n">
-        <v>9417</v>
+        <v>8747</v>
       </c>
     </row>
     <row r="786">
@@ -9015,7 +9015,7 @@
         <v>784</v>
       </c>
       <c r="C786" t="n">
-        <v>10110</v>
+        <v>8747</v>
       </c>
     </row>
     <row r="787">
@@ -9026,7 +9026,7 @@
         <v>785</v>
       </c>
       <c r="C787" t="n">
-        <v>10590</v>
+        <v>8747</v>
       </c>
     </row>
     <row r="788">
@@ -9037,7 +9037,7 @@
         <v>786</v>
       </c>
       <c r="C788" t="n">
-        <v>11700</v>
+        <v>8747</v>
       </c>
     </row>
     <row r="789">
@@ -9048,7 +9048,7 @@
         <v>787</v>
       </c>
       <c r="C789" t="n">
-        <v>11379</v>
+        <v>8825</v>
       </c>
     </row>
     <row r="790">
@@ -9059,7 +9059,7 @@
         <v>788</v>
       </c>
       <c r="C790" t="n">
-        <v>11790</v>
+        <v>8825</v>
       </c>
     </row>
     <row r="791">
@@ -9070,7 +9070,7 @@
         <v>789</v>
       </c>
       <c r="C791" t="n">
-        <v>10693</v>
+        <v>8332</v>
       </c>
     </row>
     <row r="792">
@@ -9081,7 +9081,7 @@
         <v>790</v>
       </c>
       <c r="C792" t="n">
-        <v>10881</v>
+        <v>8332</v>
       </c>
     </row>
     <row r="793">
@@ -9092,7 +9092,7 @@
         <v>791</v>
       </c>
       <c r="C793" t="n">
-        <v>10111</v>
+        <v>8332</v>
       </c>
     </row>
     <row r="794">
@@ -9103,7 +9103,7 @@
         <v>792</v>
       </c>
       <c r="C794" t="n">
-        <v>10111</v>
+        <v>8734</v>
       </c>
     </row>
     <row r="795">
@@ -9114,7 +9114,7 @@
         <v>793</v>
       </c>
       <c r="C795" t="n">
-        <v>10111</v>
+        <v>8021</v>
       </c>
     </row>
     <row r="796">
@@ -9125,7 +9125,7 @@
         <v>794</v>
       </c>
       <c r="C796" t="n">
-        <v>10111</v>
+        <v>8829</v>
       </c>
     </row>
     <row r="797">
@@ -9136,7 +9136,7 @@
         <v>795</v>
       </c>
       <c r="C797" t="n">
-        <v>9310</v>
+        <v>8476</v>
       </c>
     </row>
     <row r="798">
@@ -9147,7 +9147,7 @@
         <v>796</v>
       </c>
       <c r="C798" t="n">
-        <v>9248</v>
+        <v>8476</v>
       </c>
     </row>
     <row r="799">
@@ -9158,7 +9158,7 @@
         <v>797</v>
       </c>
       <c r="C799" t="n">
-        <v>9310</v>
+        <v>8506</v>
       </c>
     </row>
     <row r="800">
@@ -9169,7 +9169,7 @@
         <v>798</v>
       </c>
       <c r="C800" t="n">
-        <v>9596</v>
+        <v>8506</v>
       </c>
     </row>
     <row r="801">
@@ -9180,7 +9180,7 @@
         <v>799</v>
       </c>
       <c r="C801" t="n">
-        <v>9891</v>
+        <v>8506</v>
       </c>
     </row>
     <row r="802">
@@ -9191,7 +9191,7 @@
         <v>800</v>
       </c>
       <c r="C802" t="n">
-        <v>10620</v>
+        <v>8506</v>
       </c>
     </row>
     <row r="803">
@@ -9202,7 +9202,7 @@
         <v>801</v>
       </c>
       <c r="C803" t="n">
-        <v>10212</v>
+        <v>8506</v>
       </c>
     </row>
     <row r="804">
@@ -9213,7 +9213,7 @@
         <v>802</v>
       </c>
       <c r="C804" t="n">
-        <v>10111</v>
+        <v>8825</v>
       </c>
     </row>
     <row r="805">
@@ -9224,7 +9224,7 @@
         <v>803</v>
       </c>
       <c r="C805" t="n">
-        <v>10025</v>
+        <v>8825</v>
       </c>
     </row>
     <row r="806">
@@ -9235,7 +9235,7 @@
         <v>804</v>
       </c>
       <c r="C806" t="n">
-        <v>10459</v>
+        <v>9696</v>
       </c>
     </row>
     <row r="807">
@@ -9246,7 +9246,7 @@
         <v>805</v>
       </c>
       <c r="C807" t="n">
-        <v>10391</v>
+        <v>9799</v>
       </c>
     </row>
     <row r="808">
@@ -9257,7 +9257,7 @@
         <v>806</v>
       </c>
       <c r="C808" t="n">
-        <v>9050</v>
+        <v>8740</v>
       </c>
     </row>
     <row r="809">
@@ -9268,7 +9268,7 @@
         <v>807</v>
       </c>
       <c r="C809" t="n">
-        <v>9352</v>
+        <v>8740</v>
       </c>
     </row>
     <row r="810">
@@ -9279,7 +9279,7 @@
         <v>808</v>
       </c>
       <c r="C810" t="n">
-        <v>10919</v>
+        <v>8970</v>
       </c>
     </row>
     <row r="811">
@@ -9290,7 +9290,7 @@
         <v>809</v>
       </c>
       <c r="C811" t="n">
-        <v>10919</v>
+        <v>8970</v>
       </c>
     </row>
     <row r="812">
@@ -9301,7 +9301,7 @@
         <v>810</v>
       </c>
       <c r="C812" t="n">
-        <v>10993</v>
+        <v>8970</v>
       </c>
     </row>
     <row r="813">
@@ -9312,7 +9312,7 @@
         <v>811</v>
       </c>
       <c r="C813" t="n">
-        <v>11601</v>
+        <v>9463</v>
       </c>
     </row>
     <row r="814">
@@ -9323,7 +9323,7 @@
         <v>812</v>
       </c>
       <c r="C814" t="n">
-        <v>11713</v>
+        <v>9463</v>
       </c>
     </row>
     <row r="815">
@@ -9334,7 +9334,7 @@
         <v>813</v>
       </c>
       <c r="C815" t="n">
-        <v>10501</v>
+        <v>9770</v>
       </c>
     </row>
     <row r="816">
@@ -9345,7 +9345,7 @@
         <v>814</v>
       </c>
       <c r="C816" t="n">
-        <v>9876</v>
+        <v>9651</v>
       </c>
     </row>
     <row r="817">
@@ -9356,7 +9356,7 @@
         <v>815</v>
       </c>
       <c r="C817" t="n">
-        <v>10440</v>
+        <v>10316</v>
       </c>
     </row>
     <row r="818">
@@ -9367,7 +9367,7 @@
         <v>816</v>
       </c>
       <c r="C818" t="n">
-        <v>10569</v>
+        <v>10316</v>
       </c>
     </row>
     <row r="819">
@@ -9378,7 +9378,7 @@
         <v>817</v>
       </c>
       <c r="C819" t="n">
-        <v>11317</v>
+        <v>10166</v>
       </c>
     </row>
     <row r="820">
@@ -9389,7 +9389,7 @@
         <v>818</v>
       </c>
       <c r="C820" t="n">
-        <v>10014</v>
+        <v>10166</v>
       </c>
     </row>
     <row r="821">
@@ -9400,7 +9400,7 @@
         <v>819</v>
       </c>
       <c r="C821" t="n">
-        <v>10581</v>
+        <v>9618</v>
       </c>
     </row>
     <row r="822">
@@ -9411,7 +9411,7 @@
         <v>820</v>
       </c>
       <c r="C822" t="n">
-        <v>9222</v>
+        <v>10166</v>
       </c>
     </row>
     <row r="823">
@@ -9422,7 +9422,7 @@
         <v>821</v>
       </c>
       <c r="C823" t="n">
-        <v>9222</v>
+        <v>9218</v>
       </c>
     </row>
     <row r="824">
@@ -9433,7 +9433,7 @@
         <v>822</v>
       </c>
       <c r="C824" t="n">
-        <v>9222</v>
+        <v>9218</v>
       </c>
     </row>
     <row r="825">
@@ -9444,7 +9444,7 @@
         <v>823</v>
       </c>
       <c r="C825" t="n">
-        <v>9222</v>
+        <v>9218</v>
       </c>
     </row>
     <row r="826">
@@ -9455,7 +9455,7 @@
         <v>824</v>
       </c>
       <c r="C826" t="n">
-        <v>9222</v>
+        <v>9218</v>
       </c>
     </row>
     <row r="827">
@@ -9466,7 +9466,7 @@
         <v>825</v>
       </c>
       <c r="C827" t="n">
-        <v>8482</v>
+        <v>9280</v>
       </c>
     </row>
     <row r="828">
@@ -9477,7 +9477,7 @@
         <v>826</v>
       </c>
       <c r="C828" t="n">
-        <v>8749</v>
+        <v>9280</v>
       </c>
     </row>
     <row r="829">
@@ -9488,7 +9488,7 @@
         <v>827</v>
       </c>
       <c r="C829" t="n">
-        <v>9608</v>
+        <v>9368</v>
       </c>
     </row>
     <row r="830">
@@ -9499,7 +9499,7 @@
         <v>828</v>
       </c>
       <c r="C830" t="n">
-        <v>9340</v>
+        <v>9665</v>
       </c>
     </row>
     <row r="831">
@@ -9510,7 +9510,7 @@
         <v>829</v>
       </c>
       <c r="C831" t="n">
-        <v>9258</v>
+        <v>9665</v>
       </c>
     </row>
     <row r="832">
@@ -9521,7 +9521,7 @@
         <v>830</v>
       </c>
       <c r="C832" t="n">
-        <v>9320</v>
+        <v>9935</v>
       </c>
     </row>
     <row r="833">
@@ -9532,7 +9532,7 @@
         <v>831</v>
       </c>
       <c r="C833" t="n">
-        <v>9936</v>
+        <v>9935</v>
       </c>
     </row>
     <row r="834">
@@ -9543,7 +9543,7 @@
         <v>832</v>
       </c>
       <c r="C834" t="n">
-        <v>9961</v>
+        <v>10334</v>
       </c>
     </row>
     <row r="835">
@@ -9554,7 +9554,7 @@
         <v>833</v>
       </c>
       <c r="C835" t="n">
-        <v>10244</v>
+        <v>10470</v>
       </c>
     </row>
     <row r="836">
@@ -9565,7 +9565,7 @@
         <v>834</v>
       </c>
       <c r="C836" t="n">
-        <v>9305</v>
+        <v>9181</v>
       </c>
     </row>
     <row r="837">
@@ -9576,7 +9576,7 @@
         <v>835</v>
       </c>
       <c r="C837" t="n">
-        <v>9220</v>
+        <v>9181</v>
       </c>
     </row>
     <row r="838">
@@ -9587,7 +9587,7 @@
         <v>836</v>
       </c>
       <c r="C838" t="n">
-        <v>9433</v>
+        <v>9293</v>
       </c>
     </row>
     <row r="839">
@@ -9598,7 +9598,7 @@
         <v>837</v>
       </c>
       <c r="C839" t="n">
-        <v>9433</v>
+        <v>8580</v>
       </c>
     </row>
     <row r="840">
@@ -9609,7 +9609,7 @@
         <v>838</v>
       </c>
       <c r="C840" t="n">
-        <v>9813</v>
+        <v>8580</v>
       </c>
     </row>
     <row r="841">
@@ -9620,7 +9620,7 @@
         <v>839</v>
       </c>
       <c r="C841" t="n">
-        <v>9813</v>
+        <v>8580</v>
       </c>
     </row>
     <row r="842">
@@ -9631,7 +9631,7 @@
         <v>840</v>
       </c>
       <c r="C842" t="n">
-        <v>9731</v>
+        <v>8580</v>
       </c>
     </row>
     <row r="843">
@@ -9642,7 +9642,7 @@
         <v>841</v>
       </c>
       <c r="C843" t="n">
-        <v>9409</v>
+        <v>9302</v>
       </c>
     </row>
     <row r="844">
@@ -9653,7 +9653,7 @@
         <v>842</v>
       </c>
       <c r="C844" t="n">
-        <v>9409</v>
+        <v>9302</v>
       </c>
     </row>
     <row r="845">
@@ -9664,7 +9664,7 @@
         <v>843</v>
       </c>
       <c r="C845" t="n">
-        <v>9790</v>
+        <v>9302</v>
       </c>
     </row>
     <row r="846">
@@ -9675,7 +9675,7 @@
         <v>844</v>
       </c>
       <c r="C846" t="n">
-        <v>10006</v>
+        <v>9869</v>
       </c>
     </row>
     <row r="847">
@@ -9686,7 +9686,7 @@
         <v>845</v>
       </c>
       <c r="C847" t="n">
-        <v>10212</v>
+        <v>9879</v>
       </c>
     </row>
     <row r="848">
@@ -9697,7 +9697,7 @@
         <v>846</v>
       </c>
       <c r="C848" t="n">
-        <v>9418</v>
+        <v>10270</v>
       </c>
     </row>
     <row r="849">
@@ -9708,7 +9708,7 @@
         <v>847</v>
       </c>
       <c r="C849" t="n">
-        <v>8701</v>
+        <v>10270</v>
       </c>
     </row>
     <row r="850">
@@ -9719,7 +9719,7 @@
         <v>848</v>
       </c>
       <c r="C850" t="n">
-        <v>8701</v>
+        <v>9977</v>
       </c>
     </row>
     <row r="851">
@@ -9730,7 +9730,7 @@
         <v>849</v>
       </c>
       <c r="C851" t="n">
-        <v>8448</v>
+        <v>10168</v>
       </c>
     </row>
     <row r="852">
@@ -9741,7 +9741,7 @@
         <v>850</v>
       </c>
       <c r="C852" t="n">
-        <v>8701</v>
+        <v>9938</v>
       </c>
     </row>
     <row r="853">
@@ -9752,7 +9752,7 @@
         <v>851</v>
       </c>
       <c r="C853" t="n">
-        <v>8701</v>
+        <v>9932</v>
       </c>
     </row>
     <row r="854">
@@ -9763,7 +9763,7 @@
         <v>852</v>
       </c>
       <c r="C854" t="n">
-        <v>9099</v>
+        <v>9849</v>
       </c>
     </row>
     <row r="855">
@@ -9774,7 +9774,7 @@
         <v>853</v>
       </c>
       <c r="C855" t="n">
-        <v>9554</v>
+        <v>9849</v>
       </c>
     </row>
     <row r="856">
@@ -9785,7 +9785,7 @@
         <v>854</v>
       </c>
       <c r="C856" t="n">
-        <v>9122</v>
+        <v>9178</v>
       </c>
     </row>
     <row r="857">
@@ -9796,7 +9796,7 @@
         <v>855</v>
       </c>
       <c r="C857" t="n">
-        <v>9122</v>
+        <v>8485</v>
       </c>
     </row>
     <row r="858">
@@ -9807,7 +9807,7 @@
         <v>856</v>
       </c>
       <c r="C858" t="n">
-        <v>9801</v>
+        <v>8485</v>
       </c>
     </row>
     <row r="859">
@@ -9818,7 +9818,7 @@
         <v>857</v>
       </c>
       <c r="C859" t="n">
-        <v>8993</v>
+        <v>8485</v>
       </c>
     </row>
     <row r="860">
@@ -9829,7 +9829,7 @@
         <v>858</v>
       </c>
       <c r="C860" t="n">
-        <v>9469</v>
+        <v>8485</v>
       </c>
     </row>
     <row r="861">
@@ -9840,7 +9840,7 @@
         <v>859</v>
       </c>
       <c r="C861" t="n">
-        <v>9044</v>
+        <v>8485</v>
       </c>
     </row>
     <row r="862">
@@ -9851,7 +9851,7 @@
         <v>860</v>
       </c>
       <c r="C862" t="n">
-        <v>8877</v>
+        <v>8485</v>
       </c>
     </row>
     <row r="863">
@@ -9862,7 +9862,7 @@
         <v>861</v>
       </c>
       <c r="C863" t="n">
-        <v>8296</v>
+        <v>8485</v>
       </c>
     </row>
     <row r="864">
@@ -9873,7 +9873,7 @@
         <v>862</v>
       </c>
       <c r="C864" t="n">
-        <v>8296</v>
+        <v>8485</v>
       </c>
     </row>
     <row r="865">
@@ -9884,7 +9884,7 @@
         <v>863</v>
       </c>
       <c r="C865" t="n">
-        <v>9048</v>
+        <v>8677</v>
       </c>
     </row>
     <row r="866">
@@ -9895,7 +9895,7 @@
         <v>864</v>
       </c>
       <c r="C866" t="n">
-        <v>8836</v>
+        <v>8677</v>
       </c>
     </row>
     <row r="867">
@@ -9906,7 +9906,7 @@
         <v>865</v>
       </c>
       <c r="C867" t="n">
-        <v>8836</v>
+        <v>8677</v>
       </c>
     </row>
     <row r="868">
@@ -9917,7 +9917,7 @@
         <v>866</v>
       </c>
       <c r="C868" t="n">
-        <v>8836</v>
+        <v>8677</v>
       </c>
     </row>
     <row r="869">
@@ -9928,7 +9928,7 @@
         <v>867</v>
       </c>
       <c r="C869" t="n">
-        <v>9811</v>
+        <v>8677</v>
       </c>
     </row>
     <row r="870">
@@ -9939,7 +9939,7 @@
         <v>868</v>
       </c>
       <c r="C870" t="n">
-        <v>10080</v>
+        <v>8677</v>
       </c>
     </row>
     <row r="871">
@@ -9950,7 +9950,7 @@
         <v>869</v>
       </c>
       <c r="C871" t="n">
-        <v>10213</v>
+        <v>8953</v>
       </c>
     </row>
     <row r="872">
@@ -9961,7 +9961,7 @@
         <v>870</v>
       </c>
       <c r="C872" t="n">
-        <v>10213</v>
+        <v>9208</v>
       </c>
     </row>
     <row r="873">
@@ -9972,7 +9972,7 @@
         <v>871</v>
       </c>
       <c r="C873" t="n">
-        <v>10422</v>
+        <v>9208</v>
       </c>
     </row>
     <row r="874">
@@ -9983,7 +9983,7 @@
         <v>872</v>
       </c>
       <c r="C874" t="n">
-        <v>10517</v>
+        <v>9208</v>
       </c>
     </row>
     <row r="875">
@@ -9994,7 +9994,7 @@
         <v>873</v>
       </c>
       <c r="C875" t="n">
-        <v>9492</v>
+        <v>9208</v>
       </c>
     </row>
     <row r="876">
@@ -10005,7 +10005,7 @@
         <v>874</v>
       </c>
       <c r="C876" t="n">
-        <v>9525</v>
+        <v>8892</v>
       </c>
     </row>
     <row r="877">
@@ -10016,7 +10016,7 @@
         <v>875</v>
       </c>
       <c r="C877" t="n">
-        <v>8237</v>
+        <v>9208</v>
       </c>
     </row>
     <row r="878">
@@ -10027,7 +10027,7 @@
         <v>876</v>
       </c>
       <c r="C878" t="n">
-        <v>9129</v>
+        <v>9208</v>
       </c>
     </row>
     <row r="879">
@@ -10038,7 +10038,7 @@
         <v>877</v>
       </c>
       <c r="C879" t="n">
-        <v>9240</v>
+        <v>8713</v>
       </c>
     </row>
     <row r="880">
@@ -10049,7 +10049,7 @@
         <v>878</v>
       </c>
       <c r="C880" t="n">
-        <v>8510</v>
+        <v>8713</v>
       </c>
     </row>
     <row r="881">
@@ -10060,7 +10060,7 @@
         <v>879</v>
       </c>
       <c r="C881" t="n">
-        <v>8622</v>
+        <v>8713</v>
       </c>
     </row>
     <row r="882">
@@ -10071,7 +10071,7 @@
         <v>880</v>
       </c>
       <c r="C882" t="n">
-        <v>8312</v>
+        <v>8631</v>
       </c>
     </row>
     <row r="883">
@@ -10082,7 +10082,7 @@
         <v>881</v>
       </c>
       <c r="C883" t="n">
-        <v>8087</v>
+        <v>8258</v>
       </c>
     </row>
     <row r="884">
@@ -10093,7 +10093,7 @@
         <v>882</v>
       </c>
       <c r="C884" t="n">
-        <v>8087</v>
+        <v>8258</v>
       </c>
     </row>
     <row r="885">
@@ -10104,7 +10104,7 @@
         <v>883</v>
       </c>
       <c r="C885" t="n">
-        <v>8354</v>
+        <v>8258</v>
       </c>
     </row>
     <row r="886">
@@ -10115,7 +10115,7 @@
         <v>884</v>
       </c>
       <c r="C886" t="n">
-        <v>7676</v>
+        <v>8258</v>
       </c>
     </row>
     <row r="887">
@@ -10126,7 +10126,7 @@
         <v>885</v>
       </c>
       <c r="C887" t="n">
-        <v>8184</v>
+        <v>8647</v>
       </c>
     </row>
     <row r="888">
@@ -10137,7 +10137,7 @@
         <v>886</v>
       </c>
       <c r="C888" t="n">
-        <v>8245</v>
+        <v>9004</v>
       </c>
     </row>
     <row r="889">
@@ -10148,7 +10148,7 @@
         <v>887</v>
       </c>
       <c r="C889" t="n">
-        <v>9206</v>
+        <v>9004</v>
       </c>
     </row>
     <row r="890">
@@ -10159,7 +10159,7 @@
         <v>888</v>
       </c>
       <c r="C890" t="n">
-        <v>8217</v>
+        <v>8764</v>
       </c>
     </row>
     <row r="891">
@@ -10170,7 +10170,7 @@
         <v>889</v>
       </c>
       <c r="C891" t="n">
-        <v>8786</v>
+        <v>8919</v>
       </c>
     </row>
     <row r="892">
@@ -10181,7 +10181,7 @@
         <v>890</v>
       </c>
       <c r="C892" t="n">
-        <v>8065</v>
+        <v>8893</v>
       </c>
     </row>
     <row r="893">
@@ -10192,7 +10192,7 @@
         <v>891</v>
       </c>
       <c r="C893" t="n">
-        <v>8065</v>
+        <v>9740</v>
       </c>
     </row>
     <row r="894">
@@ -10203,7 +10203,7 @@
         <v>892</v>
       </c>
       <c r="C894" t="n">
-        <v>8364</v>
+        <v>9628</v>
       </c>
     </row>
     <row r="895">
@@ -10214,7 +10214,7 @@
         <v>893</v>
       </c>
       <c r="C895" t="n">
-        <v>8284</v>
+        <v>9188</v>
       </c>
     </row>
     <row r="896">
@@ -10225,7 +10225,7 @@
         <v>894</v>
       </c>
       <c r="C896" t="n">
-        <v>8572</v>
+        <v>9141</v>
       </c>
     </row>
     <row r="897">
@@ -10236,7 +10236,7 @@
         <v>895</v>
       </c>
       <c r="C897" t="n">
-        <v>7610</v>
+        <v>9552</v>
       </c>
     </row>
     <row r="898">
@@ -10247,7 +10247,7 @@
         <v>896</v>
       </c>
       <c r="C898" t="n">
-        <v>7610</v>
+        <v>9558</v>
       </c>
     </row>
     <row r="899">
@@ -10258,7 +10258,7 @@
         <v>897</v>
       </c>
       <c r="C899" t="n">
-        <v>7534</v>
+        <v>9466</v>
       </c>
     </row>
     <row r="900">
@@ -10269,7 +10269,7 @@
         <v>898</v>
       </c>
       <c r="C900" t="n">
-        <v>8288</v>
+        <v>9558</v>
       </c>
     </row>
     <row r="901">
@@ -10280,7 +10280,7 @@
         <v>899</v>
       </c>
       <c r="C901" t="n">
-        <v>8282</v>
+        <v>9472</v>
       </c>
     </row>
     <row r="902">
@@ -10291,7 +10291,7 @@
         <v>900</v>
       </c>
       <c r="C902" t="n">
-        <v>8282</v>
+        <v>9488</v>
       </c>
     </row>
     <row r="903">
@@ -10302,7 +10302,7 @@
         <v>901</v>
       </c>
       <c r="C903" t="n">
-        <v>9895</v>
+        <v>9488</v>
       </c>
     </row>
     <row r="904">
@@ -10313,7 +10313,7 @@
         <v>902</v>
       </c>
       <c r="C904" t="n">
-        <v>9202</v>
+        <v>9198</v>
       </c>
     </row>
     <row r="905">
@@ -10324,7 +10324,7 @@
         <v>903</v>
       </c>
       <c r="C905" t="n">
-        <v>7345</v>
+        <v>9198</v>
       </c>
     </row>
     <row r="906">
@@ -10335,7 +10335,7 @@
         <v>904</v>
       </c>
       <c r="C906" t="n">
-        <v>7917</v>
+        <v>9903</v>
       </c>
     </row>
     <row r="907">
@@ -10346,7 +10346,7 @@
         <v>905</v>
       </c>
       <c r="C907" t="n">
-        <v>9193</v>
+        <v>9716</v>
       </c>
     </row>
     <row r="908">
@@ -10357,7 +10357,7 @@
         <v>906</v>
       </c>
       <c r="C908" t="n">
-        <v>8604</v>
+        <v>9716</v>
       </c>
     </row>
     <row r="909">
@@ -10368,7 +10368,7 @@
         <v>907</v>
       </c>
       <c r="C909" t="n">
-        <v>8604</v>
+        <v>9716</v>
       </c>
     </row>
     <row r="910">
@@ -10379,7 +10379,7 @@
         <v>908</v>
       </c>
       <c r="C910" t="n">
-        <v>8955</v>
+        <v>10121</v>
       </c>
     </row>
     <row r="911">
@@ -10390,7 +10390,7 @@
         <v>909</v>
       </c>
       <c r="C911" t="n">
-        <v>8793</v>
+        <v>10779</v>
       </c>
     </row>
     <row r="912">
@@ -10401,7 +10401,7 @@
         <v>910</v>
       </c>
       <c r="C912" t="n">
-        <v>9887</v>
+        <v>10467</v>
       </c>
     </row>
     <row r="913">
@@ -10412,7 +10412,7 @@
         <v>911</v>
       </c>
       <c r="C913" t="n">
-        <v>9887</v>
+        <v>10067</v>
       </c>
     </row>
     <row r="914">
@@ -10423,7 +10423,7 @@
         <v>912</v>
       </c>
       <c r="C914" t="n">
-        <v>8899</v>
+        <v>8697</v>
       </c>
     </row>
     <row r="915">
@@ -10434,7 +10434,7 @@
         <v>913</v>
       </c>
       <c r="C915" t="n">
-        <v>9474</v>
+        <v>8697</v>
       </c>
     </row>
     <row r="916">
@@ -10445,7 +10445,7 @@
         <v>914</v>
       </c>
       <c r="C916" t="n">
-        <v>9477</v>
+        <v>8697</v>
       </c>
     </row>
     <row r="917">
@@ -10456,7 +10456,7 @@
         <v>915</v>
       </c>
       <c r="C917" t="n">
-        <v>9308</v>
+        <v>8697</v>
       </c>
     </row>
     <row r="918">
@@ -10467,7 +10467,7 @@
         <v>916</v>
       </c>
       <c r="C918" t="n">
-        <v>9837</v>
+        <v>8697</v>
       </c>
     </row>
     <row r="919">
@@ -10478,7 +10478,7 @@
         <v>917</v>
       </c>
       <c r="C919" t="n">
-        <v>10634</v>
+        <v>9226</v>
       </c>
     </row>
     <row r="920">
@@ -10489,7 +10489,7 @@
         <v>918</v>
       </c>
       <c r="C920" t="n">
-        <v>10399</v>
+        <v>9226</v>
       </c>
     </row>
     <row r="921">
@@ -10500,7 +10500,7 @@
         <v>919</v>
       </c>
       <c r="C921" t="n">
-        <v>8857</v>
+        <v>9099</v>
       </c>
     </row>
     <row r="922">
@@ -10511,7 +10511,7 @@
         <v>920</v>
       </c>
       <c r="C922" t="n">
-        <v>9420</v>
+        <v>9226</v>
       </c>
     </row>
     <row r="923">
@@ -10522,7 +10522,7 @@
         <v>921</v>
       </c>
       <c r="C923" t="n">
-        <v>9837</v>
+        <v>9226</v>
       </c>
     </row>
     <row r="924">
@@ -10533,7 +10533,7 @@
         <v>922</v>
       </c>
       <c r="C924" t="n">
-        <v>9837</v>
+        <v>9226</v>
       </c>
     </row>
     <row r="925">
@@ -10544,7 +10544,7 @@
         <v>923</v>
       </c>
       <c r="C925" t="n">
-        <v>9170</v>
+        <v>9226</v>
       </c>
     </row>
     <row r="926">
@@ -10555,7 +10555,7 @@
         <v>924</v>
       </c>
       <c r="C926" t="n">
-        <v>9771</v>
+        <v>9226</v>
       </c>
     </row>
     <row r="927">
@@ -10566,7 +10566,7 @@
         <v>925</v>
       </c>
       <c r="C927" t="n">
-        <v>10796</v>
+        <v>9226</v>
       </c>
     </row>
     <row r="928">
@@ -10577,7 +10577,7 @@
         <v>926</v>
       </c>
       <c r="C928" t="n">
-        <v>10917</v>
+        <v>9884</v>
       </c>
     </row>
     <row r="929">
@@ -10588,7 +10588,7 @@
         <v>927</v>
       </c>
       <c r="C929" t="n">
-        <v>10374</v>
+        <v>10513</v>
       </c>
     </row>
     <row r="930">
@@ -10599,7 +10599,7 @@
         <v>928</v>
       </c>
       <c r="C930" t="n">
-        <v>9659</v>
+        <v>10513</v>
       </c>
     </row>
     <row r="931">
@@ -10610,7 +10610,7 @@
         <v>929</v>
       </c>
       <c r="C931" t="n">
-        <v>9492</v>
+        <v>9259</v>
       </c>
     </row>
     <row r="932">
@@ -10621,7 +10621,7 @@
         <v>930</v>
       </c>
       <c r="C932" t="n">
-        <v>9492</v>
+        <v>9259</v>
       </c>
     </row>
     <row r="933">
@@ -10632,7 +10632,7 @@
         <v>931</v>
       </c>
       <c r="C933" t="n">
-        <v>9710</v>
+        <v>9821</v>
       </c>
     </row>
     <row r="934">
@@ -10643,7 +10643,7 @@
         <v>932</v>
       </c>
       <c r="C934" t="n">
-        <v>10740</v>
+        <v>10388</v>
       </c>
     </row>
     <row r="935">
@@ -10654,7 +10654,7 @@
         <v>933</v>
       </c>
       <c r="C935" t="n">
-        <v>9833</v>
+        <v>10035</v>
       </c>
     </row>
     <row r="936">
@@ -10665,7 +10665,7 @@
         <v>934</v>
       </c>
       <c r="C936" t="n">
-        <v>9732</v>
+        <v>10655</v>
       </c>
     </row>
     <row r="937">
@@ -10676,7 +10676,7 @@
         <v>935</v>
       </c>
       <c r="C937" t="n">
-        <v>9732</v>
+        <v>9987</v>
       </c>
     </row>
     <row r="938">
@@ -10687,7 +10687,7 @@
         <v>936</v>
       </c>
       <c r="C938" t="n">
-        <v>9732</v>
+        <v>9987</v>
       </c>
     </row>
     <row r="939">
@@ -10698,7 +10698,7 @@
         <v>937</v>
       </c>
       <c r="C939" t="n">
-        <v>10154</v>
+        <v>9604</v>
       </c>
     </row>
     <row r="940">
@@ -10709,7 +10709,7 @@
         <v>938</v>
       </c>
       <c r="C940" t="n">
-        <v>9874</v>
+        <v>9604</v>
       </c>
     </row>
     <row r="941">
@@ -10720,7 +10720,7 @@
         <v>939</v>
       </c>
       <c r="C941" t="n">
-        <v>9874</v>
+        <v>9582</v>
       </c>
     </row>
     <row r="942">
@@ -10731,7 +10731,7 @@
         <v>940</v>
       </c>
       <c r="C942" t="n">
-        <v>9478</v>
+        <v>9199</v>
       </c>
     </row>
     <row r="943">
@@ -10742,7 +10742,7 @@
         <v>941</v>
       </c>
       <c r="C943" t="n">
-        <v>9478</v>
+        <v>9058</v>
       </c>
     </row>
     <row r="944">
@@ -10753,7 +10753,7 @@
         <v>942</v>
       </c>
       <c r="C944" t="n">
-        <v>9478</v>
+        <v>9582</v>
       </c>
     </row>
     <row r="945">
@@ -10764,7 +10764,7 @@
         <v>943</v>
       </c>
       <c r="C945" t="n">
-        <v>9478</v>
+        <v>9582</v>
       </c>
     </row>
     <row r="946">
@@ -10775,7 +10775,7 @@
         <v>944</v>
       </c>
       <c r="C946" t="n">
-        <v>9478</v>
+        <v>9535</v>
       </c>
     </row>
     <row r="947">
@@ -10786,7 +10786,7 @@
         <v>945</v>
       </c>
       <c r="C947" t="n">
-        <v>9478</v>
+        <v>9242</v>
       </c>
     </row>
     <row r="948">
@@ -10797,7 +10797,7 @@
         <v>946</v>
       </c>
       <c r="C948" t="n">
-        <v>8663</v>
+        <v>9242</v>
       </c>
     </row>
     <row r="949">
@@ -10808,7 +10808,7 @@
         <v>947</v>
       </c>
       <c r="C949" t="n">
-        <v>9563</v>
+        <v>8674</v>
       </c>
     </row>
     <row r="950">
@@ -10819,7 +10819,7 @@
         <v>948</v>
       </c>
       <c r="C950" t="n">
-        <v>9490</v>
+        <v>8614</v>
       </c>
     </row>
     <row r="951">
@@ -10830,7 +10830,7 @@
         <v>949</v>
       </c>
       <c r="C951" t="n">
-        <v>9490</v>
+        <v>9242</v>
       </c>
     </row>
     <row r="952">
@@ -10841,7 +10841,7 @@
         <v>950</v>
       </c>
       <c r="C952" t="n">
-        <v>10041</v>
+        <v>9242</v>
       </c>
     </row>
     <row r="953">
@@ -10852,7 +10852,7 @@
         <v>951</v>
       </c>
       <c r="C953" t="n">
-        <v>9829</v>
+        <v>9242</v>
       </c>
     </row>
     <row r="954">
@@ -10863,7 +10863,7 @@
         <v>952</v>
       </c>
       <c r="C954" t="n">
-        <v>9922</v>
+        <v>9242</v>
       </c>
     </row>
     <row r="955">
@@ -10874,7 +10874,7 @@
         <v>953</v>
       </c>
       <c r="C955" t="n">
-        <v>10102</v>
+        <v>9242</v>
       </c>
     </row>
     <row r="956">
@@ -10885,7 +10885,7 @@
         <v>954</v>
       </c>
       <c r="C956" t="n">
-        <v>9690</v>
+        <v>9242</v>
       </c>
     </row>
     <row r="957">
@@ -10896,7 +10896,7 @@
         <v>955</v>
       </c>
       <c r="C957" t="n">
-        <v>9922</v>
+        <v>9242</v>
       </c>
     </row>
     <row r="958">
@@ -10907,7 +10907,7 @@
         <v>956</v>
       </c>
       <c r="C958" t="n">
-        <v>9885</v>
+        <v>10353</v>
       </c>
     </row>
     <row r="959">
@@ -10918,7 +10918,7 @@
         <v>957</v>
       </c>
       <c r="C959" t="n">
-        <v>9545</v>
+        <v>10567</v>
       </c>
     </row>
     <row r="960">
@@ -10929,7 +10929,7 @@
         <v>958</v>
       </c>
       <c r="C960" t="n">
-        <v>8297</v>
+        <v>10567</v>
       </c>
     </row>
     <row r="961">
@@ -10940,7 +10940,7 @@
         <v>959</v>
       </c>
       <c r="C961" t="n">
-        <v>8264</v>
+        <v>10520</v>
       </c>
     </row>
     <row r="962">
@@ -10951,7 +10951,7 @@
         <v>960</v>
       </c>
       <c r="C962" t="n">
-        <v>8264</v>
+        <v>9151</v>
       </c>
     </row>
     <row r="963">
@@ -10962,7 +10962,7 @@
         <v>961</v>
       </c>
       <c r="C963" t="n">
-        <v>8709</v>
+        <v>9151</v>
       </c>
     </row>
     <row r="964">
@@ -10973,7 +10973,7 @@
         <v>962</v>
       </c>
       <c r="C964" t="n">
-        <v>8037</v>
+        <v>9151</v>
       </c>
     </row>
     <row r="965">
@@ -10984,7 +10984,7 @@
         <v>963</v>
       </c>
       <c r="C965" t="n">
-        <v>8972</v>
+        <v>9151</v>
       </c>
     </row>
     <row r="966">
@@ -10995,7 +10995,7 @@
         <v>964</v>
       </c>
       <c r="C966" t="n">
-        <v>9593</v>
+        <v>9434</v>
       </c>
     </row>
     <row r="967">
@@ -11006,7 +11006,7 @@
         <v>965</v>
       </c>
       <c r="C967" t="n">
-        <v>8635</v>
+        <v>9083</v>
       </c>
     </row>
     <row r="968">
@@ -11017,7 +11017,7 @@
         <v>966</v>
       </c>
       <c r="C968" t="n">
-        <v>8610</v>
+        <v>9083</v>
       </c>
     </row>
     <row r="969">
@@ -11028,7 +11028,7 @@
         <v>967</v>
       </c>
       <c r="C969" t="n">
-        <v>8899</v>
+        <v>8973</v>
       </c>
     </row>
     <row r="970">
@@ -11039,7 +11039,7 @@
         <v>968</v>
       </c>
       <c r="C970" t="n">
-        <v>8610</v>
+        <v>8973</v>
       </c>
     </row>
     <row r="971">
@@ -11050,7 +11050,7 @@
         <v>969</v>
       </c>
       <c r="C971" t="n">
-        <v>8610</v>
+        <v>8973</v>
       </c>
     </row>
     <row r="972">
@@ -11061,7 +11061,7 @@
         <v>970</v>
       </c>
       <c r="C972" t="n">
-        <v>8663</v>
+        <v>8973</v>
       </c>
     </row>
     <row r="973">
@@ -11072,7 +11072,7 @@
         <v>971</v>
       </c>
       <c r="C973" t="n">
-        <v>8568</v>
+        <v>9806</v>
       </c>
     </row>
     <row r="974">
@@ -11083,7 +11083,7 @@
         <v>972</v>
       </c>
       <c r="C974" t="n">
-        <v>8663</v>
+        <v>9420</v>
       </c>
     </row>
     <row r="975">
@@ -11094,7 +11094,7 @@
         <v>973</v>
       </c>
       <c r="C975" t="n">
-        <v>8663</v>
+        <v>9420</v>
       </c>
     </row>
     <row r="976">
@@ -11105,7 +11105,7 @@
         <v>974</v>
       </c>
       <c r="C976" t="n">
-        <v>8568</v>
+        <v>8930</v>
       </c>
     </row>
     <row r="977">
@@ -11116,7 +11116,7 @@
         <v>975</v>
       </c>
       <c r="C977" t="n">
-        <v>8297</v>
+        <v>8930</v>
       </c>
     </row>
     <row r="978">
@@ -11127,7 +11127,7 @@
         <v>976</v>
       </c>
       <c r="C978" t="n">
-        <v>8297</v>
+        <v>8930</v>
       </c>
     </row>
     <row r="979">
@@ -11138,7 +11138,7 @@
         <v>977</v>
       </c>
       <c r="C979" t="n">
-        <v>8297</v>
+        <v>9578</v>
       </c>
     </row>
     <row r="980">
@@ -11149,7 +11149,7 @@
         <v>978</v>
       </c>
       <c r="C980" t="n">
-        <v>8297</v>
+        <v>9578</v>
       </c>
     </row>
     <row r="981">
@@ -11160,7 +11160,7 @@
         <v>979</v>
       </c>
       <c r="C981" t="n">
-        <v>8297</v>
+        <v>9578</v>
       </c>
     </row>
     <row r="982">
@@ -11171,7 +11171,7 @@
         <v>980</v>
       </c>
       <c r="C982" t="n">
-        <v>8102</v>
+        <v>9485</v>
       </c>
     </row>
     <row r="983">
@@ -11182,7 +11182,7 @@
         <v>981</v>
       </c>
       <c r="C983" t="n">
-        <v>8489</v>
+        <v>9801</v>
       </c>
     </row>
     <row r="984">
@@ -11193,7 +11193,7 @@
         <v>982</v>
       </c>
       <c r="C984" t="n">
-        <v>8610</v>
+        <v>9988</v>
       </c>
     </row>
     <row r="985">
@@ -11204,7 +11204,7 @@
         <v>983</v>
       </c>
       <c r="C985" t="n">
-        <v>8874</v>
+        <v>9606</v>
       </c>
     </row>
     <row r="986">
@@ -11215,7 +11215,7 @@
         <v>984</v>
       </c>
       <c r="C986" t="n">
-        <v>8610</v>
+        <v>9606</v>
       </c>
     </row>
     <row r="987">
@@ -11226,7 +11226,7 @@
         <v>985</v>
       </c>
       <c r="C987" t="n">
-        <v>8610</v>
+        <v>9606</v>
       </c>
     </row>
     <row r="988">
@@ -11237,7 +11237,7 @@
         <v>986</v>
       </c>
       <c r="C988" t="n">
-        <v>9130</v>
+        <v>9586</v>
       </c>
     </row>
     <row r="989">
@@ -11248,7 +11248,7 @@
         <v>987</v>
       </c>
       <c r="C989" t="n">
-        <v>9996</v>
+        <v>9586</v>
       </c>
     </row>
     <row r="990">
@@ -11259,7 +11259,7 @@
         <v>988</v>
       </c>
       <c r="C990" t="n">
-        <v>9996</v>
+        <v>9586</v>
       </c>
     </row>
     <row r="991">
@@ -11270,7 +11270,7 @@
         <v>989</v>
       </c>
       <c r="C991" t="n">
-        <v>10291</v>
+        <v>9487</v>
       </c>
     </row>
     <row r="992">
@@ -11281,7 +11281,7 @@
         <v>990</v>
       </c>
       <c r="C992" t="n">
-        <v>9638</v>
+        <v>9487</v>
       </c>
     </row>
     <row r="993">
@@ -11292,7 +11292,7 @@
         <v>991</v>
       </c>
       <c r="C993" t="n">
-        <v>10133</v>
+        <v>9993</v>
       </c>
     </row>
     <row r="994">
@@ -11303,7 +11303,7 @@
         <v>992</v>
       </c>
       <c r="C994" t="n">
-        <v>9538</v>
+        <v>9762</v>
       </c>
     </row>
     <row r="995">
@@ -11314,7 +11314,7 @@
         <v>993</v>
       </c>
       <c r="C995" t="n">
-        <v>9538</v>
+        <v>9762</v>
       </c>
     </row>
     <row r="996">
@@ -11325,7 +11325,7 @@
         <v>994</v>
       </c>
       <c r="C996" t="n">
-        <v>9230</v>
+        <v>9993</v>
       </c>
     </row>
     <row r="997">
@@ -11336,7 +11336,7 @@
         <v>995</v>
       </c>
       <c r="C997" t="n">
-        <v>8701</v>
+        <v>9709</v>
       </c>
     </row>
     <row r="998">
@@ -11347,7 +11347,7 @@
         <v>996</v>
       </c>
       <c r="C998" t="n">
-        <v>8701</v>
+        <v>9709</v>
       </c>
     </row>
     <row r="999">
@@ -11358,7 +11358,7 @@
         <v>997</v>
       </c>
       <c r="C999" t="n">
-        <v>9066</v>
+        <v>9709</v>
       </c>
     </row>
     <row r="1000">
@@ -11369,7 +11369,7 @@
         <v>998</v>
       </c>
       <c r="C1000" t="n">
-        <v>9638</v>
+        <v>9709</v>
       </c>
     </row>
     <row r="1001">
@@ -11380,7 +11380,7 @@
         <v>999</v>
       </c>
       <c r="C1001" t="n">
-        <v>9782</v>
+        <v>9709</v>
       </c>
     </row>
     <row r="1002">
@@ -11391,7 +11391,7 @@
         <v>1000</v>
       </c>
       <c r="C1002" t="n">
-        <v>8511</v>
+        <v>9223</v>
       </c>
     </row>
   </sheetData>
